--- a/list-url-link.xlsx
+++ b/list-url-link.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$151</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="193">
   <si>
     <t>Kode Klasifikasi Lapangan Usaha (KLU)</t>
   </si>
@@ -597,16 +597,34 @@
   </si>
   <si>
     <t>Pasal 27 UU KUP , Banding</t>
+  </si>
+  <si>
+    <t>far fa-file-word</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  url: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -630,10 +648,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -644,8 +663,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,26 +945,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:S151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K151"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>179</v>
       </c>
@@ -951,28 +972,31 @@
         <v>180</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -985,32 +1009,40 @@
       <c r="D2" t="s">
         <v>151</v>
       </c>
-      <c r="E2" t="s">
-        <v>146</v>
+      <c r="E2" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>B2&amp;$C$1&amp;C2&amp;CHAR(10)&amp;$D$1&amp;D2&amp;CHAR(10)&amp;$E$1&amp;E2&amp;CHAR(10)&amp;$F$1&amp;F2&amp;CHAR(10)&amp;$G$1&amp;G2&amp;CHAR(10)&amp;$H$1&amp;H2&amp;CHAR(10)&amp;$I$1&amp;I2&amp;CHAR(10)&amp;$J$1&amp;TEXT(J2,"dd mmmm yyyy")</f>
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f>B2&amp;$C$1&amp;C2&amp;CHAR(10)&amp;$D$1&amp;D2&amp;CHAR(10)&amp;$E$1&amp;E2&amp;CHAR(10)&amp;$F$1&amp;F2&amp;CHAR(10)&amp;$G$1&amp;G2&amp;CHAR(10)&amp;$H$1&amp;H2&amp;IF(I2=0,"",CHAR(10)&amp;$I$1)&amp;I2&amp;CHAR(10)&amp;$J$1&amp;J2&amp;CHAR(10)&amp;$K$1&amp;TEXT(K2,"dd mmmm yyyy")</f>
         <v>- id: 1
   title: Saat Dimulainya Kewajiban Perpajakan
-  fitur: resume
-  category: kup
-  topik: 
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="R2" s="1" t="s">
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
+  fitur: resume
+  category: kup
+  topik: Umum
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -1023,31 +1055,40 @@
       <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" t="s">
-        <v>146</v>
+      <c r="E3" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K55" si="0">B3&amp;$C$1&amp;C3&amp;CHAR(10)&amp;$D$1&amp;D3&amp;CHAR(10)&amp;$E$1&amp;E3&amp;CHAR(10)&amp;$F$1&amp;F3&amp;CHAR(10)&amp;$G$1&amp;G3&amp;CHAR(10)&amp;$H$1&amp;H3&amp;CHAR(10)&amp;$I$1&amp;I3&amp;CHAR(10)&amp;$J$1&amp;TEXT(J3,"dd mmmm yyyy")</f>
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f t="shared" ref="L3:L66" si="0">B3&amp;$C$1&amp;C3&amp;CHAR(10)&amp;$D$1&amp;D3&amp;CHAR(10)&amp;$E$1&amp;E3&amp;CHAR(10)&amp;$F$1&amp;F3&amp;CHAR(10)&amp;$G$1&amp;G3&amp;CHAR(10)&amp;$H$1&amp;H3&amp;IF(I3=0,"",CHAR(10)&amp;$I$1)&amp;I3&amp;CHAR(10)&amp;$J$1&amp;J3&amp;CHAR(10)&amp;$K$1&amp;TEXT(K3,"dd mmmm yyyy")</f>
         <v>- id: 2
   title: Dokumen yang Wajib Disimpan oleh Wajib Pajak yang Melakukan Transaksi dengan Pihak Afiliasi
-  fitur: resume
-  category: kup
-  topik: 
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="R3" s="1" t="s">
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
+  fitur: resume
+  category: kup
+  topik: Umum
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1060,34 +1101,40 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>146</v>
+      <c r="E4" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K4" s="5" t="str">
+      <c r="J4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 3
   title: Kode Klasifikasi Lapangan Usaha (KLU)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="R4" s="1" t="s">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1100,34 +1147,40 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>146</v>
+      <c r="E5" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K5" s="5" t="str">
+      <c r="J5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 4
   title: Layanan unggulan bidang perpajakan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="R5" s="1" t="s">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1140,34 +1193,40 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>146</v>
+      <c r="E6" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K6" s="5" t="str">
+      <c r="J6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 5
   title: Surat Keterangan Fiskal (SKF)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="R6" s="1" t="s">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1180,31 +1239,37 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>146</v>
+      <c r="E7" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K7" s="5" t="str">
+      <c r="J7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 6
   title: Permintaan Penjelasan atas Data dan/atau Keterangan dan Kunjungan (Visit) kepada Wajib Pajak.
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1217,31 +1282,37 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>146</v>
+      <c r="E8" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K8" s="5" t="str">
+      <c r="J8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 7
   title: Tindak Lanjut Surat Himbauan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1254,31 +1325,37 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>146</v>
+      <c r="E9" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K9" s="5" t="str">
+      <c r="J9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 8
   title: Surat Kuasa Khusus
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1291,31 +1368,37 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>146</v>
+      <c r="E10" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K10" s="5" t="str">
+      <c r="J10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 9
   title: Penentuan SPDN dan SPLN
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1328,31 +1411,37 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>146</v>
+      <c r="E11" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K11" s="5" t="str">
+      <c r="J11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 10
   title: Jenis Pelayanan Kepada WP yang Diberikan oleh KPP dan Kanwil DJP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1365,31 +1454,37 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>146</v>
+      <c r="E12" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K12" s="5" t="str">
+      <c r="J12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 11
   title: Tata cara verifikasi
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1402,31 +1497,37 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>146</v>
+      <c r="E13" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K13" s="5" t="str">
+      <c r="J13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 12
   title: DJP Online
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1439,31 +1540,37 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>146</v>
+      <c r="E14" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K14" s="5" t="str">
+      <c r="J14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 13
   title: Konfirmasi Status Wajib Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1476,31 +1583,37 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>146</v>
+      <c r="E15" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K15" s="5" t="str">
+      <c r="J15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 14
   title: Tata cara ekstensifikasi
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1513,31 +1626,37 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>146</v>
+      <c r="E16" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K16" s="5" t="str">
+      <c r="J16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 15
   title: Ketentuan Umum terkait NPWP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1550,34 +1669,41 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>146</v>
+      <c r="E17" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
         <v>148</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K17" s="5" t="str">
+      <c r="J17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 16
   title: NPWP bagi Wanita Kawin
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1590,34 +1716,41 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
-        <v>146</v>
+      <c r="E18" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
         <v>148</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K18" s="5" t="str">
+      <c r="J18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 17
   title: Pendaftaran NPWP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1630,34 +1763,41 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>146</v>
+      <c r="E19" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
         <v>148</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K19" s="5" t="str">
+      <c r="J19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 18
   title: Penghapusan NPWP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1670,34 +1810,41 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>146</v>
+      <c r="E20" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
         <v>148</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K20" s="5" t="str">
+      <c r="J20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 19
   title: Pengukuhan PKP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1710,34 +1857,41 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
-        <v>146</v>
+      <c r="E21" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
         <v>148</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K21" s="5" t="str">
+      <c r="J21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 20
   title: Pencabutan Pengukuhan PKP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1750,34 +1904,41 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
-        <v>146</v>
+      <c r="E22" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
         <v>148</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K22" s="5" t="str">
+      <c r="J22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 21
   title: Perubahan Data WP Dan/Atau PKP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1790,34 +1951,41 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" t="s">
-        <v>146</v>
+      <c r="E23" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
         <v>148</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K23" s="5" t="str">
+      <c r="J23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 22
   title: Pemindahan WP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1830,34 +1998,41 @@
       <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
-        <v>146</v>
+      <c r="E24" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
         <v>148</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K24" s="5" t="str">
+      <c r="J24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 23
   title: Penetapan WP Sebagai WP Non Efektif
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1870,34 +2045,41 @@
       <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
-        <v>146</v>
+      <c r="E25" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
         <v>148</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K25" s="5" t="str">
+      <c r="J25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 24
   title: Pencabutan Pengukuhan PKP secara Jabatan atas Pengusaha Kecil 2014
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1910,34 +2092,41 @@
       <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>146</v>
+      <c r="E26" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
         <v>148</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>150</v>
       </c>
-      <c r="J26" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K26" s="5" t="str">
+      <c r="J26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 25
   title: Tempat Pendaftaran NPWP WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora (Sejak 1 Januari 2013)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Tempat pendaftaran WP Tertentu
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1950,34 +2139,41 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" t="s">
-        <v>146</v>
+      <c r="E27" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G27" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" t="s">
         <v>148</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>150</v>
       </c>
-      <c r="J27" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K27" s="5" t="str">
+      <c r="J27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 26
   title: Tempat Pendaftaran NPWP WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora Tertentu (Sejak 30 Maret 2012)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Tempat pendaftaran WP Tertentu
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1990,34 +2186,41 @@
       <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>146</v>
+      <c r="E28" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
         <v>148</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K28" s="5" t="str">
+      <c r="J28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 27
   title: Tempat Pendaftaran NPWP WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora (sebelum 30 Maret 2012)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Tempat pendaftaran WP Tertentu
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2030,34 +2233,41 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>146</v>
+      <c r="E29" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
         <v>148</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K29" s="5" t="str">
+      <c r="J29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 28
   title: Pelaksanaan Hak dan Kewajiban sehubungan dengan Pemindahan WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Tempat pendaftaran WP Tertentu
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2070,34 +2280,41 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>146</v>
+      <c r="E30" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" t="s">
         <v>148</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>150</v>
       </c>
-      <c r="J30" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K30" s="5" t="str">
+      <c r="J30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 29
   title: Tempat Pendaftaran/Pelaporan PKP bagi WP yang Usahanya di Bidang Pengalihan Tanah/Bangunan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Tempat pendaftaran WP Tertentu
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2110,34 +2327,41 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" t="s">
-        <v>146</v>
+      <c r="E31" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" t="s">
         <v>148</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K31" s="5" t="str">
+      <c r="J31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 30
   title: Pendaftaran NPWP dan Pengukuhan PKP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak 30 September 2015
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2150,34 +2374,41 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" t="s">
-        <v>146</v>
+      <c r="E32" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
         <v>148</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K32" s="5" t="str">
+      <c r="J32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 31
   title: Penghapusan NPWP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak 30 September 2015
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2190,34 +2421,41 @@
       <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="E33" t="s">
-        <v>146</v>
+      <c r="E33" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" t="s">
         <v>148</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K33" s="5" t="str">
+      <c r="J33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 32
   title: Pencabutan PKP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak 30 September 2015
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2230,34 +2468,41 @@
       <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" t="s">
-        <v>146</v>
+      <c r="E34" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" t="s">
         <v>148</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>154</v>
       </c>
-      <c r="J34" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K34" s="5" t="str">
+      <c r="J34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 33
   title: Pendaftaran NPWP dan Pengukuhan PKP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak 1 November 2017
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2270,34 +2515,41 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E35" t="s">
-        <v>146</v>
+      <c r="E35" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K35" s="5" t="str">
+      <c r="J35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 34
   title: Penghapusan NPWP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: NPWP dan PKP
   subtopik: Ketentuan Sejak 1 November 2017
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2310,34 +2562,41 @@
       <c r="D36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" t="s">
-        <v>146</v>
+      <c r="E36" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" t="s">
         <v>155</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K36" s="5" t="str">
+      <c r="J36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 35
   title: Ketentuan Umum Terkait SPT
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2350,34 +2609,41 @@
       <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
-        <v>146</v>
+      <c r="E37" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" t="s">
         <v>155</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>166</v>
       </c>
-      <c r="J37" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K37" s="5" t="str">
+      <c r="J37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 36
   title: Penyampaian SPT Tahunan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2390,34 +2656,41 @@
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
-        <v>146</v>
+      <c r="E38" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
         <v>155</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K38" s="5" t="str">
+      <c r="J38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 37
   title: Penyampaian SPT Elektronik (e-SPT)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2430,34 +2703,41 @@
       <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="E39" t="s">
-        <v>146</v>
+      <c r="E39" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
         <v>155</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>166</v>
       </c>
-      <c r="J39" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K39" s="5" t="str">
+      <c r="J39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 38
   title: Batas Waktu Pembayaran, Penyetoran, Penyampaian SPT, dan Sanksi Keterlambatan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2470,34 +2750,41 @@
       <c r="D40" t="s">
         <v>33</v>
       </c>
-      <c r="E40" t="s">
-        <v>146</v>
+      <c r="E40" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" t="s">
         <v>155</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K40" s="5" t="str">
+      <c r="J40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 39
   title: Pengangsuran dan Penundaan pembayaran SPT Tahunan PPh
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2510,34 +2797,41 @@
       <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" t="s">
-        <v>146</v>
+      <c r="E41" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" t="s">
         <v>155</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K41" s="5" t="str">
+      <c r="J41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 40
   title: Perpanjangan Penyampaian SPT Tahunan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2550,34 +2844,41 @@
       <c r="D42" t="s">
         <v>35</v>
       </c>
-      <c r="E42" t="s">
-        <v>146</v>
+      <c r="E42" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
         <v>155</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K42" s="5" t="str">
+      <c r="J42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 41
   title: Penyampaian e-SPT bagi WP KPP Madya, KPP WP Besar, KPP PMA, KPP Badora
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2590,34 +2891,41 @@
       <c r="D43" t="s">
         <v>36</v>
       </c>
-      <c r="E43" t="s">
-        <v>146</v>
+      <c r="E43" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" t="s">
         <v>155</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K43" s="5" t="str">
+      <c r="J43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 42
   title: Pembetulan SPT
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2630,34 +2938,41 @@
       <c r="D44" t="s">
         <v>37</v>
       </c>
-      <c r="E44" t="s">
-        <v>146</v>
+      <c r="E44" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" t="s">
         <v>155</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K44" s="5" t="str">
+      <c r="J44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 43
   title: Pengungkapan ketidakbenaran Pengisian SPT &amp; Pengungkapan Ketidakbenaran Perbuatan WP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2670,34 +2985,41 @@
       <c r="D45" t="s">
         <v>38</v>
       </c>
-      <c r="E45" t="s">
-        <v>146</v>
+      <c r="E45" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" t="s">
         <v>155</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>166</v>
       </c>
-      <c r="J45" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K45" s="5" t="str">
+      <c r="J45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 44
   title: Penyedia Layanan SPT Elektronik
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: Ketentuan Terkait SPT
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2710,34 +3032,41 @@
       <c r="D46" t="s">
         <v>39</v>
       </c>
-      <c r="E46" t="s">
-        <v>146</v>
+      <c r="E46" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" t="s">
         <v>155</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K46" s="5" t="str">
+      <c r="J46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 45
   title: SPT Tahunan PPh OP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Tahunan PPh OP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2750,34 +3079,41 @@
       <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="E47" t="s">
-        <v>146</v>
+      <c r="E47" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" t="s">
         <v>155</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K47" s="5" t="str">
+      <c r="J47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 46
   title: Penghasilan Tidak Kena Pajak (PTKP)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Tahunan PPh OP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2790,34 +3126,41 @@
       <c r="D48" t="s">
         <v>41</v>
       </c>
-      <c r="E48" t="s">
-        <v>146</v>
+      <c r="E48" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" t="s">
         <v>155</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>41</v>
       </c>
-      <c r="J48" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K48" s="5" t="str">
+      <c r="J48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 47
   title: SPT Tahunan PPh Badan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Tahunan PPh Badan
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2830,34 +3173,41 @@
       <c r="D49" t="s">
         <v>42</v>
       </c>
-      <c r="E49" t="s">
-        <v>146</v>
+      <c r="E49" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" t="s">
         <v>155</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K49" s="5" t="str">
+      <c r="J49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 48
   title: SPT Tahunan PPh Migas
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Tahunan PPh Badan
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2870,34 +3220,41 @@
       <c r="D50" t="s">
         <v>43</v>
       </c>
-      <c r="E50" t="s">
-        <v>146</v>
+      <c r="E50" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" t="s">
         <v>155</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>167</v>
       </c>
-      <c r="J50" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K50" s="5" t="str">
+      <c r="J50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 49
   title: SPT Masa PPN sejak Masa Juli 2015
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2910,34 +3267,41 @@
       <c r="D51" t="s">
         <v>44</v>
       </c>
-      <c r="E51" t="s">
-        <v>146</v>
+      <c r="E51" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" t="s">
         <v>155</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>167</v>
       </c>
-      <c r="J51" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K51" s="5" t="str">
+      <c r="J51" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K51" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 50
   title: Perbedaan SPT masa PPN 1107, 1108, 1111
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2950,34 +3314,41 @@
       <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="E52" t="s">
-        <v>146</v>
+      <c r="E52" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" t="s">
         <v>155</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>167</v>
       </c>
-      <c r="J52" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K52" s="5" t="str">
+      <c r="J52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 51
   title: Kewajiban E-SPT bagi WP di KPP Madya dan KPP di Wilayah Kanwil Jakarta Khusus dan Kanwil WP Besar
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2990,34 +3361,41 @@
       <c r="D53" t="s">
         <v>46</v>
       </c>
-      <c r="E53" t="s">
-        <v>146</v>
+      <c r="E53" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" t="s">
         <v>155</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>167</v>
       </c>
-      <c r="J53" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K53" s="5" t="str">
+      <c r="J53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K53" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 52
   title: SPT 1111 Sejak Masa Juni 2013
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -3030,34 +3408,41 @@
       <c r="D54" t="s">
         <v>47</v>
       </c>
-      <c r="E54" t="s">
-        <v>146</v>
+      <c r="E54" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" t="s">
         <v>155</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K54" s="5" t="str">
+      <c r="J54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 53
   title: SPT 1111 DM sejak Masa Juni 2013
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -3070,34 +3455,41 @@
       <c r="D55" t="s">
         <v>48</v>
       </c>
-      <c r="E55" t="s">
-        <v>146</v>
+      <c r="E55" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" t="s">
         <v>155</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K55" s="5" t="str">
+      <c r="J55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>- id: 54
   title: SPT 1111 DM Masa Januari 2011 s/d Mei 2013
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3110,34 +3502,41 @@
       <c r="D56" t="s">
         <v>49</v>
       </c>
-      <c r="E56" t="s">
-        <v>146</v>
+      <c r="E56" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" t="s">
         <v>155</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>167</v>
       </c>
-      <c r="J56" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K56" s="5" t="str">
-        <f t="shared" ref="K56:K109" si="1">B56&amp;$C$1&amp;C56&amp;CHAR(10)&amp;$D$1&amp;D56&amp;CHAR(10)&amp;$E$1&amp;E56&amp;CHAR(10)&amp;$F$1&amp;F56&amp;CHAR(10)&amp;$G$1&amp;G56&amp;CHAR(10)&amp;$H$1&amp;H56&amp;CHAR(10)&amp;$I$1&amp;I56&amp;CHAR(10)&amp;$J$1&amp;TEXT(J56,"dd mmmm yyyy")</f>
+      <c r="J56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L56" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 55
   title: SPT 1111 Sejak Masa Januari 2011 s/d Mei 2013
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -3150,34 +3549,41 @@
       <c r="D57" t="s">
         <v>50</v>
       </c>
-      <c r="E57" t="s">
-        <v>146</v>
+      <c r="E57" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" t="s">
         <v>155</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>167</v>
       </c>
-      <c r="J57" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K57" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L57" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 56
   title: Petunjuk Umum Pengisian,Pencetakan,dan Pelaporan SPT Masa PPN 1111 Masa Januari 2011 s/d Mei 2013
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3190,34 +3596,41 @@
       <c r="D58" t="s">
         <v>51</v>
       </c>
-      <c r="E58" t="s">
-        <v>146</v>
+      <c r="E58" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" t="s">
         <v>155</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>167</v>
       </c>
-      <c r="J58" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K58" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L58" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 57
   title: Jenis SPT Masa PPN sebelum 1 Januari 2011
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPN
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -3230,34 +3643,41 @@
       <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="E59" t="s">
-        <v>146</v>
+      <c r="E59" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" t="s">
         <v>155</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K59" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 58
   title: SPT Masa PPh 21 (Ketentuan Sebelum 1 Januari 2014)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPh Pasal 21
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -3270,34 +3690,41 @@
       <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="E60" t="s">
-        <v>146</v>
+      <c r="E60" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" t="s">
         <v>155</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>168</v>
       </c>
-      <c r="J60" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K60" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L60" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 59
   title: SPT Masa PPh 21 (Ketentuan Sejak 1 Januari 2014)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPh Pasal 21
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -3310,34 +3737,41 @@
       <c r="D61" t="s">
         <v>54</v>
       </c>
-      <c r="E61" t="s">
-        <v>146</v>
+      <c r="E61" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" t="s">
         <v>155</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>169</v>
       </c>
-      <c r="J61" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K61" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K61" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L61" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 60
   title: SPT Masa PPh Pasal 23/26
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: SPT
   subtopik: SPT Masa PPh Pasal 23
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3350,31 +3784,37 @@
       <c r="D62" t="s">
         <v>55</v>
       </c>
-      <c r="E62" t="s">
-        <v>146</v>
+      <c r="E62" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G62" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" t="s">
         <v>156</v>
       </c>
-      <c r="J62" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L62" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 61
   title: Pembayaran atau Penyetoran pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -3387,31 +3827,37 @@
       <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" t="s">
-        <v>146</v>
+      <c r="E63" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G63" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" t="s">
         <v>156</v>
       </c>
-      <c r="J63" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K63" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K63" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L63" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 62
   title: Permohonan Pemindahbukuan (Pbk)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -3424,31 +3870,37 @@
       <c r="D64" t="s">
         <v>57</v>
       </c>
-      <c r="E64" t="s">
-        <v>146</v>
+      <c r="E64" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G64" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" t="s">
         <v>156</v>
       </c>
-      <c r="J64" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K64" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L64" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 63
   title: Tabel Kode Ketetapan per Jenis Pajak (Kode SKP, STP) lama
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -3461,31 +3913,37 @@
       <c r="D65" t="s">
         <v>58</v>
       </c>
-      <c r="E65" t="s">
-        <v>146</v>
+      <c r="E65" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" t="s">
         <v>156</v>
       </c>
-      <c r="J65" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K65" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L65" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 64
   title: Tata Cara Angsuran Dan Penundaan Pembayaran Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -3498,31 +3956,37 @@
       <c r="D66" t="s">
         <v>59</v>
       </c>
-      <c r="E66" t="s">
-        <v>146</v>
+      <c r="E66" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G66" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" t="s">
         <v>156</v>
       </c>
-      <c r="J66" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>- id: 65
   title: kode MAP SSBP untuk biaya pelaksanaan SP, SPMP, Pengumuman Lelang dan Pembatalan lelang
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -3535,31 +3999,37 @@
       <c r="D67" t="s">
         <v>60</v>
       </c>
-      <c r="E67" t="s">
-        <v>146</v>
+      <c r="E67" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" t="s">
         <v>156</v>
       </c>
-      <c r="J67" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K67" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K67" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L67" s="5" t="str">
+        <f t="shared" ref="L67:L130" si="1">B67&amp;$C$1&amp;C67&amp;CHAR(10)&amp;$D$1&amp;D67&amp;CHAR(10)&amp;$E$1&amp;E67&amp;CHAR(10)&amp;$F$1&amp;F67&amp;CHAR(10)&amp;$G$1&amp;G67&amp;CHAR(10)&amp;$H$1&amp;H67&amp;IF(I67=0,"",CHAR(10)&amp;$I$1)&amp;I67&amp;CHAR(10)&amp;$J$1&amp;J67&amp;CHAR(10)&amp;$K$1&amp;TEXT(K67,"dd mmmm yyyy")</f>
         <v>- id: 66
   title: Biaya Penagihan Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -3572,31 +4042,37 @@
       <c r="D68" t="s">
         <v>61</v>
       </c>
-      <c r="E68" t="s">
-        <v>146</v>
+      <c r="E68" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" t="s">
         <v>156</v>
       </c>
-      <c r="J68" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K68" s="5" t="str">
+      <c r="J68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K68" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 67
   title: Jangka Waktu Pembayaran Pajak dan Jangka Waktu Pelunasan STP, SKPKB, SKPKBT, dll
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3609,31 +4085,37 @@
       <c r="D69" t="s">
         <v>62</v>
       </c>
-      <c r="E69" t="s">
-        <v>146</v>
+      <c r="E69" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G69" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" t="s">
         <v>156</v>
       </c>
-      <c r="J69" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K69" s="5" t="str">
+      <c r="J69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 68
   title: Tabel Kode Ketetapan per Jenis Pajak (Kode SKP, STP)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -3646,31 +4128,37 @@
       <c r="D70" t="s">
         <v>63</v>
       </c>
-      <c r="E70" t="s">
-        <v>146</v>
+      <c r="E70" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G70" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" t="s">
         <v>156</v>
       </c>
-      <c r="J70" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K70" s="5" t="str">
+      <c r="J70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 69
   title: Tabel Kode MAP dan KJS Lengkap
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -3683,31 +4171,37 @@
       <c r="D71" t="s">
         <v>64</v>
       </c>
-      <c r="E71" t="s">
-        <v>146</v>
+      <c r="E71" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" t="s">
         <v>156</v>
       </c>
-      <c r="J71" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K71" s="5" t="str">
+      <c r="J71" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K71" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 70
   title: penundaan pembayaran PPh pasal 29 tahun 2013 bagi WP industri tertentu
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -3720,31 +4214,37 @@
       <c r="D72" t="s">
         <v>65</v>
       </c>
-      <c r="E72" t="s">
-        <v>146</v>
+      <c r="E72" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" t="s">
         <v>156</v>
       </c>
-      <c r="J72" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K72" s="5" t="str">
+      <c r="J72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 71
   title: Sistem Pembayaran Pajak secara Elektronik (Billing System) (Ketentuan sejak 13 Oktober 2014)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -3757,31 +4257,37 @@
       <c r="D73" t="s">
         <v>66</v>
       </c>
-      <c r="E73" t="s">
-        <v>146</v>
+      <c r="E73" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G73" t="s">
+        <v>145</v>
+      </c>
+      <c r="H73" t="s">
         <v>156</v>
       </c>
-      <c r="J73" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K73" s="5" t="str">
+      <c r="J73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 72
   title: Sistem Pembayaran Pajak secara Elektronik (Billing System) (Ketentuan sejak 4 April 2017)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembayaran atau Penyetoran
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -3794,31 +4300,37 @@
       <c r="D74" t="s">
         <v>67</v>
       </c>
-      <c r="E74" t="s">
-        <v>146</v>
+      <c r="E74" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G74" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" t="s">
         <v>157</v>
       </c>
-      <c r="J74" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K74" s="5" t="str">
+      <c r="J74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 73
   title: Jadwal Waktu Penagihan Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Penagihan Pajak
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3831,31 +4343,37 @@
       <c r="D75" t="s">
         <v>68</v>
       </c>
-      <c r="E75" t="s">
-        <v>146</v>
+      <c r="E75" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G75" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75" t="s">
         <v>157</v>
       </c>
-      <c r="J75" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K75" s="5" t="str">
+      <c r="J75" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K75" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 74
   title: Ketentuan terkait Penagihan pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Penagihan Pajak
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -3868,31 +4386,37 @@
       <c r="D76" t="s">
         <v>187</v>
       </c>
-      <c r="E76" t="s">
-        <v>146</v>
+      <c r="E76" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G76" t="s">
+        <v>145</v>
+      </c>
+      <c r="H76" t="s">
         <v>158</v>
       </c>
-      <c r="J76" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K76" s="5" t="str">
+      <c r="J76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K76" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 75
   title: Pasal 25 UU KUP , Keberatan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Keberatan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -3905,31 +4429,37 @@
       <c r="D77" t="s">
         <v>188</v>
       </c>
-      <c r="E77" t="s">
-        <v>146</v>
+      <c r="E77" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" t="s">
         <v>159</v>
       </c>
-      <c r="J77" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K77" s="5" t="str">
+      <c r="J77" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K77" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 76
   title: Pasal 16 KUP , Pembetulan STP, Surat Ketetapan/Keputusan Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -3942,31 +4472,37 @@
       <c r="D78" t="s">
         <v>71</v>
       </c>
-      <c r="E78" t="s">
-        <v>146</v>
+      <c r="E78" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G78" t="s">
+        <v>145</v>
+      </c>
+      <c r="H78" t="s">
         <v>159</v>
       </c>
-      <c r="J78" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K78" s="5" t="str">
+      <c r="J78" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K78" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 77
   title: Gugatan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -3979,31 +4515,37 @@
       <c r="D79" t="s">
         <v>189</v>
       </c>
-      <c r="E79" t="s">
-        <v>146</v>
+      <c r="E79" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G79" t="s">
+        <v>145</v>
+      </c>
+      <c r="H79" t="s">
         <v>159</v>
       </c>
-      <c r="J79" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K79" s="5" t="str">
+      <c r="J79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K79" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 78
   title: Pasal 27 UU KUP , Banding
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -4016,31 +4558,37 @@
       <c r="D80" t="s">
         <v>73</v>
       </c>
-      <c r="E80" t="s">
-        <v>146</v>
+      <c r="E80" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" t="s">
         <v>159</v>
       </c>
-      <c r="J80" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K80" s="5" t="str">
+      <c r="J80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K80" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L80" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 79
   title: Peninjauan Kembali
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -4053,34 +4601,41 @@
       <c r="D81" t="s">
         <v>74</v>
       </c>
-      <c r="E81" t="s">
-        <v>146</v>
+      <c r="E81" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G81" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" t="s">
         <v>159</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>170</v>
       </c>
-      <c r="J81" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K81" s="5" t="str">
+      <c r="J81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K81" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L81" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 80
   title: Pengurangan/penghapusan sanksi, pengurangan/pembatalan STP/SKP,pembatalan hasil pemeriksaan (Ketentuan Sebelum 1 Maret 2013)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -4093,34 +4648,41 @@
       <c r="D82" t="s">
         <v>75</v>
       </c>
-      <c r="E82" t="s">
-        <v>146</v>
+      <c r="E82" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G82" t="s">
+        <v>145</v>
+      </c>
+      <c r="H82" t="s">
         <v>159</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>170</v>
       </c>
-      <c r="J82" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K82" s="5" t="str">
+      <c r="J82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K82" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L82" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 81
   title: Ketentuan terkait Pasal 36 UU KUP Sejak 1 Maret 2013
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -4133,34 +4695,41 @@
       <c r="D83" t="s">
         <v>76</v>
       </c>
-      <c r="E83" t="s">
-        <v>146</v>
+      <c r="E83" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G83" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" t="s">
         <v>159</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>170</v>
       </c>
-      <c r="J83" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K83" s="5" t="str">
+      <c r="J83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K83" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L83" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 82
   title: Pengurangan Atau Penghapusan Sanksi Administrasi Pada SKP dan STP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -4173,34 +4742,41 @@
       <c r="D84" t="s">
         <v>77</v>
       </c>
-      <c r="E84" t="s">
-        <v>146</v>
+      <c r="E84" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G84" t="s">
+        <v>145</v>
+      </c>
+      <c r="H84" t="s">
         <v>159</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>170</v>
       </c>
-      <c r="J84" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K84" s="5" t="str">
+      <c r="J84" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K84" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L84" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 83
   title: Pengurangan atau Pembatalan SKP yang Tidak Benar
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -4213,34 +4789,41 @@
       <c r="D85" t="s">
         <v>78</v>
       </c>
-      <c r="E85" t="s">
-        <v>146</v>
+      <c r="E85" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G85" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" t="s">
         <v>159</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>170</v>
       </c>
-      <c r="J85" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K85" s="5" t="str">
+      <c r="J85" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K85" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L85" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 84
   title: Pengurangan atau Pembatalan STP yang Tidak Benar
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -4253,34 +4836,41 @@
       <c r="D86" t="s">
         <v>79</v>
       </c>
-      <c r="E86" t="s">
-        <v>146</v>
+      <c r="E86" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G86" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" t="s">
         <v>159</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>170</v>
       </c>
-      <c r="J86" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K86" s="5" t="str">
+      <c r="J86" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K86" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L86" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 85
   title: permohonan pembatalan SKP hasil pemeriksaan atau verifikasi
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -4293,34 +4883,41 @@
       <c r="D87" t="s">
         <v>80</v>
       </c>
-      <c r="E87" t="s">
-        <v>146</v>
+      <c r="E87" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G87" t="s">
+        <v>145</v>
+      </c>
+      <c r="H87" t="s">
         <v>159</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>170</v>
       </c>
-      <c r="J87" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K87" s="5" t="str">
+      <c r="J87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K87" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L87" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 86
   title: Penghapusan Sanksi Administrasi Bunga Pasal 19 ayat (1) UU KUP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -4333,34 +4930,41 @@
       <c r="D88" t="s">
         <v>81</v>
       </c>
-      <c r="E88" t="s">
-        <v>146</v>
+      <c r="E88" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G88" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" t="s">
         <v>159</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>170</v>
       </c>
-      <c r="J88" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K88" s="5" t="str">
+      <c r="J88" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K88" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L88" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 87
   title: Pengurangan Atau Penghapusan Sanksi Administrasi Atas SPT
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4373,34 +4977,41 @@
       <c r="D89" t="s">
         <v>82</v>
       </c>
-      <c r="E89" t="s">
-        <v>146</v>
+      <c r="E89" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H89" t="s">
         <v>159</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>170</v>
       </c>
-      <c r="J89" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K89" s="5" t="str">
+      <c r="J89" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K89" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L89" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 88
   title: Pengurangan Sanksi Administrasi dalam SKP, SKP PBB, dan atau STP yang diterbitkan pada tahun 2015
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Banding, Gugatan, dan Peninjauan Kembali
   subtopik: Pasal 36 UU KUP
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -4413,31 +5024,37 @@
       <c r="D90" t="s">
         <v>83</v>
       </c>
-      <c r="E90" t="s">
-        <v>146</v>
+      <c r="E90" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G90" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" t="s">
         <v>85</v>
       </c>
-      <c r="J90" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K90" s="5" t="str">
+      <c r="J90" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K90" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L90" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 89
   title: Pembukuan dengan Mata Uang Asing
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembukuan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4450,31 +5067,37 @@
       <c r="D91" t="s">
         <v>84</v>
       </c>
-      <c r="E91" t="s">
-        <v>146</v>
+      <c r="E91" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G91" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" t="s">
         <v>85</v>
       </c>
-      <c r="J91" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K91" s="5" t="str">
+      <c r="J91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K91" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L91" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 90
   title: Perubahan Metode Pembukuan dan atau Tahun Buku
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembukuan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -4487,31 +5110,37 @@
       <c r="D92" t="s">
         <v>85</v>
       </c>
-      <c r="E92" t="s">
-        <v>146</v>
+      <c r="E92" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G92" t="s">
+        <v>145</v>
+      </c>
+      <c r="H92" t="s">
         <v>85</v>
       </c>
-      <c r="J92" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K92" s="5" t="str">
+      <c r="J92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K92" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L92" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 91
   title: Pembukuan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembukuan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -4524,31 +5153,37 @@
       <c r="D93" t="s">
         <v>86</v>
       </c>
-      <c r="E93" t="s">
-        <v>146</v>
+      <c r="E93" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G93" t="s">
+        <v>145</v>
+      </c>
+      <c r="H93" t="s">
         <v>85</v>
       </c>
-      <c r="J93" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K93" s="5" t="str">
+      <c r="J93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K93" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L93" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 92
   title: Pencatatan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembukuan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4561,31 +5196,37 @@
       <c r="D94" t="s">
         <v>87</v>
       </c>
-      <c r="E94" t="s">
-        <v>146</v>
+      <c r="E94" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F94" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G94" t="s">
+        <v>145</v>
+      </c>
+      <c r="H94" t="s">
         <v>85</v>
       </c>
-      <c r="J94" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K94" s="5" t="str">
+      <c r="J94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K94" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L94" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 93
   title: Ketentuan Terkait Konversi Ke Satuan Mata Uang Dollar Dan Ketentuan Lain Setelah WP Memperoleh Izin Pembukuan Dollar
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pembukuan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4598,31 +5239,37 @@
       <c r="D95" t="s">
         <v>88</v>
       </c>
-      <c r="E95" t="s">
-        <v>146</v>
+      <c r="E95" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G95" t="s">
+        <v>145</v>
+      </c>
+      <c r="H95" t="s">
         <v>160</v>
       </c>
-      <c r="J95" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K95" s="5" t="str">
+      <c r="J95" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K95" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L95" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 94
   title: Tata Cara Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -4635,34 +5282,41 @@
       <c r="D96" t="s">
         <v>89</v>
       </c>
-      <c r="E96" t="s">
-        <v>146</v>
+      <c r="E96" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G96" t="s">
+        <v>145</v>
+      </c>
+      <c r="H96" t="s">
         <v>160</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>171</v>
       </c>
-      <c r="J96" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K96" s="5" t="str">
+      <c r="J96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K96" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L96" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 95
   title: Ruang Lingkup, Kriteria, dan Jenis Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -4675,34 +5329,41 @@
       <c r="D97" t="s">
         <v>90</v>
       </c>
-      <c r="E97" t="s">
-        <v>146</v>
+      <c r="E97" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G97" t="s">
+        <v>145</v>
+      </c>
+      <c r="H97" t="s">
         <v>160</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>171</v>
       </c>
-      <c r="J97" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K97" s="5" t="str">
+      <c r="J97" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K97" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L97" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 96
   title: Standar Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -4715,34 +5376,41 @@
       <c r="D98" t="s">
         <v>91</v>
       </c>
-      <c r="E98" t="s">
-        <v>146</v>
+      <c r="E98" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G98" t="s">
+        <v>145</v>
+      </c>
+      <c r="H98" t="s">
         <v>160</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>171</v>
       </c>
-      <c r="J98" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K98" s="5" t="str">
+      <c r="J98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K98" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L98" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 97
   title: Kewajiban dan Kewenangan Pemeriksa Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -4755,34 +5423,41 @@
       <c r="D99" t="s">
         <v>92</v>
       </c>
-      <c r="E99" t="s">
-        <v>146</v>
+      <c r="E99" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G99" t="s">
+        <v>145</v>
+      </c>
+      <c r="H99" t="s">
         <v>160</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>171</v>
       </c>
-      <c r="J99" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K99" s="5" t="str">
+      <c r="J99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K99" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L99" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 98
   title: Hak dan Kewajiban Wajib Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -4795,34 +5470,41 @@
       <c r="D100" t="s">
         <v>93</v>
       </c>
-      <c r="E100" t="s">
-        <v>146</v>
+      <c r="E100" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G100" t="s">
+        <v>145</v>
+      </c>
+      <c r="H100" t="s">
         <v>160</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>171</v>
       </c>
-      <c r="J100" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K100" s="5" t="str">
+      <c r="J100" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K100" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L100" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 99
   title: Jangka Waktu Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -4835,34 +5517,41 @@
       <c r="D101" t="s">
         <v>94</v>
       </c>
-      <c r="E101" t="s">
-        <v>146</v>
+      <c r="E101" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G101" t="s">
+        <v>145</v>
+      </c>
+      <c r="H101" t="s">
         <v>160</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>171</v>
       </c>
-      <c r="J101" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K101" s="5" t="str">
+      <c r="J101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K101" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L101" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 100
   title: Penyelesaian Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -4875,34 +5564,41 @@
       <c r="D102" t="s">
         <v>95</v>
       </c>
-      <c r="E102" t="s">
-        <v>146</v>
+      <c r="E102" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G102" t="s">
+        <v>145</v>
+      </c>
+      <c r="H102" t="s">
         <v>160</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>171</v>
       </c>
-      <c r="J102" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K102" s="5" t="str">
+      <c r="J102" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K102" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L102" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 101
   title: Tim Pemeriksa Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4915,34 +5611,41 @@
       <c r="D103" t="s">
         <v>96</v>
       </c>
-      <c r="E103" t="s">
-        <v>146</v>
+      <c r="E103" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" t="s">
         <v>160</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>171</v>
       </c>
-      <c r="J103" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K103" s="5" t="str">
+      <c r="J103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K103" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L103" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 102
   title: Pemberitahuan, Panggilan Pemeriksaan, dan Pertemuan dengan WP
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4955,34 +5658,41 @@
       <c r="D104" t="s">
         <v>97</v>
       </c>
-      <c r="E104" t="s">
-        <v>146</v>
+      <c r="E104" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G104" t="s">
+        <v>145</v>
+      </c>
+      <c r="H104" t="s">
         <v>160</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>171</v>
       </c>
-      <c r="J104" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K104" s="5" t="str">
+      <c r="J104" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K104" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L104" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 103
   title: Peminjaman Dokumen
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -4995,34 +5705,41 @@
       <c r="D105" t="s">
         <v>98</v>
       </c>
-      <c r="E105" t="s">
-        <v>146</v>
+      <c r="E105" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G105" t="s">
+        <v>145</v>
+      </c>
+      <c r="H105" t="s">
         <v>160</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>171</v>
       </c>
-      <c r="J105" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K105" s="5" t="str">
+      <c r="J105" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K105" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L105" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 104
   title: Penyegelan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -5035,34 +5752,41 @@
       <c r="D106" t="s">
         <v>99</v>
       </c>
-      <c r="E106" t="s">
-        <v>146</v>
+      <c r="E106" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G106" t="s">
+        <v>145</v>
+      </c>
+      <c r="H106" t="s">
         <v>160</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>171</v>
       </c>
-      <c r="J106" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K106" s="5" t="str">
+      <c r="J106" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K106" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L106" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 105
   title: Penolakan Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -5075,34 +5799,41 @@
       <c r="D107" t="s">
         <v>100</v>
       </c>
-      <c r="E107" t="s">
-        <v>146</v>
+      <c r="E107" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G107" t="s">
+        <v>145</v>
+      </c>
+      <c r="H107" t="s">
         <v>160</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>171</v>
       </c>
-      <c r="J107" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K107" s="5" t="str">
+      <c r="J107" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K107" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L107" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 106
   title: Penjelasan WP dan Permintaan Keterangan Kepada Pihak Ketiga
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -5115,34 +5846,41 @@
       <c r="D108" t="s">
         <v>101</v>
       </c>
-      <c r="E108" t="s">
-        <v>146</v>
+      <c r="E108" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G108" t="s">
+        <v>145</v>
+      </c>
+      <c r="H108" t="s">
         <v>160</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>171</v>
       </c>
-      <c r="J108" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K108" s="5" t="str">
+      <c r="J108" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K108" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L108" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 107
   title: Pemberitahuan Hasil Pemeriksaan dan Pembahasan Akhir Hasil Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -5155,34 +5893,41 @@
       <c r="D109" t="s">
         <v>102</v>
       </c>
-      <c r="E109" t="s">
-        <v>146</v>
+      <c r="E109" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G109" t="s">
+        <v>145</v>
+      </c>
+      <c r="H109" t="s">
         <v>160</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>171</v>
       </c>
-      <c r="J109" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K109" s="5" t="str">
+      <c r="J109" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K109" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L109" s="5" t="str">
         <f t="shared" si="1"/>
         <v>- id: 108
   title: Pelaporan Hasil Pemeriksaan dan Pengembalian Dokumen
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -5195,34 +5940,41 @@
       <c r="D110" t="s">
         <v>103</v>
       </c>
-      <c r="E110" t="s">
-        <v>146</v>
+      <c r="E110" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F110" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G110" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110" t="s">
         <v>160</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>171</v>
       </c>
-      <c r="J110" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K110" s="5" t="str">
-        <f t="shared" ref="K110:K151" si="2">B110&amp;$C$1&amp;C110&amp;CHAR(10)&amp;$D$1&amp;D110&amp;CHAR(10)&amp;$E$1&amp;E110&amp;CHAR(10)&amp;$F$1&amp;F110&amp;CHAR(10)&amp;$G$1&amp;G110&amp;CHAR(10)&amp;$H$1&amp;H110&amp;CHAR(10)&amp;$I$1&amp;I110&amp;CHAR(10)&amp;$J$1&amp;TEXT(J110,"dd mmmm yyyy")</f>
+      <c r="J110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K110" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L110" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 109
   title: Pembatalan Hasil Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -5235,34 +5987,41 @@
       <c r="D111" t="s">
         <v>104</v>
       </c>
-      <c r="E111" t="s">
-        <v>146</v>
+      <c r="E111" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F111" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G111" t="s">
+        <v>145</v>
+      </c>
+      <c r="H111" t="s">
         <v>160</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>171</v>
       </c>
-      <c r="J111" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K111" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J111" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K111" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L111" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 110
   title: Pengungkapan Ketidakbenaran Pengisian SPT Selama Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -5275,34 +6034,41 @@
       <c r="D112" t="s">
         <v>105</v>
       </c>
-      <c r="E112" t="s">
-        <v>146</v>
+      <c r="E112" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G112" t="s">
+        <v>145</v>
+      </c>
+      <c r="H112" t="s">
         <v>160</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K112" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K112" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L112" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 111
   title: Usulan Pemeriksaan Bukti Permulaan dan Penangguhan Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -5315,34 +6081,41 @@
       <c r="D113" t="s">
         <v>106</v>
       </c>
-      <c r="E113" t="s">
-        <v>146</v>
+      <c r="E113" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G113" t="s">
+        <v>145</v>
+      </c>
+      <c r="H113" t="s">
         <v>160</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>171</v>
       </c>
-      <c r="J113" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K113" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K113" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L113" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 112
   title: Pemeriksaan Ulang
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -5355,34 +6128,41 @@
       <c r="D114" t="s">
         <v>89</v>
       </c>
-      <c r="E114" t="s">
-        <v>146</v>
+      <c r="E114" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G114" t="s">
+        <v>145</v>
+      </c>
+      <c r="H114" t="s">
         <v>160</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>172</v>
       </c>
-      <c r="J114" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K114" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J114" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K114" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L114" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 113
   title: Ruang Lingkup, Kriteria, dan Jenis Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -5395,34 +6175,41 @@
       <c r="D115" t="s">
         <v>90</v>
       </c>
-      <c r="E115" t="s">
-        <v>146</v>
+      <c r="E115" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G115" t="s">
+        <v>145</v>
+      </c>
+      <c r="H115" t="s">
         <v>160</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>172</v>
       </c>
-      <c r="J115" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K115" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J115" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K115" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L115" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 114
   title: Standar Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -5435,34 +6222,41 @@
       <c r="D116" t="s">
         <v>91</v>
       </c>
-      <c r="E116" t="s">
-        <v>146</v>
+      <c r="E116" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G116" t="s">
+        <v>145</v>
+      </c>
+      <c r="H116" t="s">
         <v>160</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>172</v>
       </c>
-      <c r="J116" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K116" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J116" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K116" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L116" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 115
   title: Kewajiban dan Kewenangan Pemeriksa Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -5475,34 +6269,41 @@
       <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E117" t="s">
-        <v>146</v>
+      <c r="E117" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G117" t="s">
+        <v>145</v>
+      </c>
+      <c r="H117" t="s">
         <v>160</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>172</v>
       </c>
-      <c r="J117" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K117" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J117" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K117" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L117" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 116
   title: Hak dan Kewajiban Wajib Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -5515,34 +6316,41 @@
       <c r="D118" t="s">
         <v>93</v>
       </c>
-      <c r="E118" t="s">
-        <v>146</v>
+      <c r="E118" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G118" t="s">
+        <v>145</v>
+      </c>
+      <c r="H118" t="s">
         <v>160</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>172</v>
       </c>
-      <c r="J118" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K118" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J118" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K118" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L118" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 117
   title: Jangka Waktu Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -5555,34 +6363,41 @@
       <c r="D119" t="s">
         <v>107</v>
       </c>
-      <c r="E119" t="s">
-        <v>146</v>
+      <c r="E119" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G119" t="s">
+        <v>145</v>
+      </c>
+      <c r="H119" t="s">
         <v>160</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>172</v>
       </c>
-      <c r="J119" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K119" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J119" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K119" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L119" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 118
   title: Surat Perintah Pemeriksaan (SP2) dan Surat Yang Berisi Perubahan Tim Pemeriksa Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>108</v>
       </c>
@@ -5595,34 +6410,41 @@
       <c r="D120" t="s">
         <v>108</v>
       </c>
-      <c r="E120" t="s">
-        <v>146</v>
+      <c r="E120" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F120" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G120" t="s">
+        <v>145</v>
+      </c>
+      <c r="H120" t="s">
         <v>160</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>172</v>
       </c>
-      <c r="J120" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K120" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J120" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K120" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L120" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 119
   title: Pemberitahuan dan Panggilan Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -5635,34 +6457,41 @@
       <c r="D121" t="s">
         <v>97</v>
       </c>
-      <c r="E121" t="s">
-        <v>146</v>
+      <c r="E121" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G121" t="s">
+        <v>145</v>
+      </c>
+      <c r="H121" t="s">
         <v>160</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>172</v>
       </c>
-      <c r="J121" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K121" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J121" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K121" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L121" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 120
   title: Peminjaman Dokumen
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -5675,34 +6504,41 @@
       <c r="D122" t="s">
         <v>99</v>
       </c>
-      <c r="E122" t="s">
-        <v>146</v>
+      <c r="E122" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G122" t="s">
+        <v>145</v>
+      </c>
+      <c r="H122" t="s">
         <v>160</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>172</v>
       </c>
-      <c r="J122" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K122" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K122" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L122" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 121
   title: Penolakan Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -5715,34 +6551,41 @@
       <c r="D123" t="s">
         <v>109</v>
       </c>
-      <c r="E123" t="s">
-        <v>146</v>
+      <c r="E123" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F123" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G123" t="s">
+        <v>145</v>
+      </c>
+      <c r="H123" t="s">
         <v>160</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>172</v>
       </c>
-      <c r="J123" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K123" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J123" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K123" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L123" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 122
   title: Penjelasan Wajib Pajak dan Pihak Ketiga
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -5755,34 +6598,41 @@
       <c r="D124" t="s">
         <v>110</v>
       </c>
-      <c r="E124" t="s">
-        <v>146</v>
+      <c r="E124" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G124" t="s">
+        <v>145</v>
+      </c>
+      <c r="H124" t="s">
         <v>160</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>173</v>
       </c>
-      <c r="J124" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K124" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J124" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K124" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L124" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 123
   title: Pemeriksaan lapangan (Untuk Surat Perintah Pemeriksaan yang diterbitkan sebelum 3 Mei 2011)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -5795,34 +6645,41 @@
       <c r="D125" t="s">
         <v>111</v>
       </c>
-      <c r="E125" t="s">
-        <v>146</v>
+      <c r="E125" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G125" t="s">
+        <v>145</v>
+      </c>
+      <c r="H125" t="s">
         <v>160</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>173</v>
       </c>
-      <c r="J125" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K125" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J125" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K125" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L125" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 124
   title: Hak dan Kewajiban Wajib Pajak dan Pemeriksa Pajak dalam Pemeriksaan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -5835,34 +6692,41 @@
       <c r="D126" t="s">
         <v>112</v>
       </c>
-      <c r="E126" t="s">
-        <v>146</v>
+      <c r="E126" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G126" t="s">
+        <v>145</v>
+      </c>
+      <c r="H126" t="s">
         <v>160</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>173</v>
       </c>
-      <c r="J126" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K126" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J126" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K126" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L126" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 125
   title: Pemerikasaan kantor
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -5875,34 +6739,41 @@
       <c r="D127" t="s">
         <v>113</v>
       </c>
-      <c r="E127" t="s">
-        <v>146</v>
+      <c r="E127" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G127" t="s">
+        <v>145</v>
+      </c>
+      <c r="H127" t="s">
         <v>160</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>173</v>
       </c>
-      <c r="J127" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K127" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J127" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K127" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L127" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 126
   title: Pemeriksaan Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -5915,34 +6786,41 @@
       <c r="D128" t="s">
         <v>114</v>
       </c>
-      <c r="E128" t="s">
-        <v>146</v>
+      <c r="E128" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G128" t="s">
+        <v>145</v>
+      </c>
+      <c r="H128" t="s">
         <v>160</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>173</v>
       </c>
-      <c r="J128" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K128" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J128" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K128" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L128" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 127
   title: Tata Cara Pemeriksaan Pajak
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -5955,34 +6833,41 @@
       <c r="D129" t="s">
         <v>115</v>
       </c>
-      <c r="E129" t="s">
-        <v>146</v>
+      <c r="E129" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G129" t="s">
+        <v>145</v>
+      </c>
+      <c r="H129" t="s">
         <v>160</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>173</v>
       </c>
-      <c r="J129" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K129" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K129" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L129" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 128
   title: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>116</v>
       </c>
@@ -5995,34 +6880,41 @@
       <c r="D130" t="s">
         <v>116</v>
       </c>
-      <c r="E130" t="s">
-        <v>146</v>
+      <c r="E130" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G130" t="s">
+        <v>145</v>
+      </c>
+      <c r="H130" t="s">
         <v>160</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>173</v>
       </c>
-      <c r="J130" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K130" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J130" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K130" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L130" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>- id: 129
   title: Pemeriksaan Untuk Tujuan Lain Dalam rangka Melaksanakan Ketentuan Peraturan Per-UU-an Perpajakan
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Pemeriksaan
   subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -6035,31 +6927,37 @@
       <c r="D131" t="s">
         <v>117</v>
       </c>
-      <c r="E131" t="s">
-        <v>146</v>
+      <c r="E131" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F131" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G131" t="s">
+        <v>145</v>
+      </c>
+      <c r="H131" t="s">
         <v>161</v>
       </c>
-      <c r="J131" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K131" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J131" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K131" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L131" s="5" t="str">
+        <f t="shared" ref="L131:L151" si="2">B131&amp;$C$1&amp;C131&amp;CHAR(10)&amp;$D$1&amp;D131&amp;CHAR(10)&amp;$E$1&amp;E131&amp;CHAR(10)&amp;$F$1&amp;F131&amp;CHAR(10)&amp;$G$1&amp;G131&amp;CHAR(10)&amp;$H$1&amp;H131&amp;IF(I131=0,"",CHAR(10)&amp;$I$1)&amp;I131&amp;CHAR(10)&amp;$J$1&amp;J131&amp;CHAR(10)&amp;$K$1&amp;TEXT(K131,"dd mmmm yyyy")</f>
         <v>- id: 130
   title: Surat Ketetapan Pajak (SKP)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Sanksi, Penetapan dan Ketetapan Pajak
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -6072,31 +6970,37 @@
       <c r="D132" t="s">
         <v>118</v>
       </c>
-      <c r="E132" t="s">
-        <v>146</v>
+      <c r="E132" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G132" t="s">
+        <v>145</v>
+      </c>
+      <c r="H132" t="s">
         <v>161</v>
       </c>
-      <c r="J132" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K132" s="5" t="str">
+      <c r="J132" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K132" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L132" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 131
   title: SKPKB
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Sanksi, Penetapan dan Ketetapan Pajak
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>119</v>
       </c>
@@ -6109,31 +7013,37 @@
       <c r="D133" t="s">
         <v>119</v>
       </c>
-      <c r="E133" t="s">
-        <v>146</v>
+      <c r="E133" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G133" t="s">
+        <v>145</v>
+      </c>
+      <c r="H133" t="s">
         <v>161</v>
       </c>
-      <c r="J133" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K133" s="5" t="str">
+      <c r="J133" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K133" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L133" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 132
   title: Surat Tagihan Pajak (STP)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Sanksi, Penetapan dan Ketetapan Pajak
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>120</v>
       </c>
@@ -6146,31 +7056,37 @@
       <c r="D134" t="s">
         <v>120</v>
       </c>
-      <c r="E134" t="s">
-        <v>146</v>
+      <c r="E134" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F134" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G134" t="s">
+        <v>145</v>
+      </c>
+      <c r="H134" t="s">
         <v>161</v>
       </c>
-      <c r="J134" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K134" s="5" t="str">
+      <c r="J134" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K134" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L134" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 133
   title: SKPKBT
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Sanksi, Penetapan dan Ketetapan Pajak
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -6183,34 +7099,41 @@
       <c r="D135" t="s">
         <v>121</v>
       </c>
-      <c r="E135" t="s">
-        <v>146</v>
+      <c r="E135" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G135" t="s">
+        <v>145</v>
+      </c>
+      <c r="H135" t="s">
         <v>162</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>174</v>
       </c>
-      <c r="J135" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K135" s="5" t="str">
+      <c r="J135" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K135" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L135" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 134
   title: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang (ketentuan lama)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -6223,34 +7146,41 @@
       <c r="D136" t="s">
         <v>122</v>
       </c>
-      <c r="E136" t="s">
-        <v>146</v>
+      <c r="E136" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G136" t="s">
+        <v>145</v>
+      </c>
+      <c r="H136" t="s">
         <v>162</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>174</v>
       </c>
-      <c r="J136" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K136" s="5" t="str">
+      <c r="J136" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K136" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L136" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 135
   title: Untuk PPh yang Dibayar Sendiri oleh WP (Ketentuan sebelum 1 Februari 2013)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -6263,34 +7193,41 @@
       <c r="D137" t="s">
         <v>123</v>
       </c>
-      <c r="E137" t="s">
-        <v>146</v>
+      <c r="E137" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G137" t="s">
+        <v>145</v>
+      </c>
+      <c r="H137" t="s">
         <v>162</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>174</v>
       </c>
-      <c r="J137" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K137" s="5" t="str">
+      <c r="J137" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K137" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L137" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 136
   title: Untuk PPh yang Dipotong/Dipungut oleh Pihak Lain (Ketentuan sebelum 1 Februari 2013)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -6303,34 +7240,41 @@
       <c r="D138" t="s">
         <v>124</v>
       </c>
-      <c r="E138" t="s">
-        <v>146</v>
+      <c r="E138" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G138" t="s">
+        <v>145</v>
+      </c>
+      <c r="H138" t="s">
         <v>162</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>174</v>
       </c>
-      <c r="J138" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K138" s="5" t="str">
+      <c r="J138" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K138" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L138" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 137
   title: Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang bagi WPLN (Ketentuan sebelum 1 Februari 2013)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>125</v>
       </c>
@@ -6343,34 +7287,41 @@
       <c r="D139" t="s">
         <v>125</v>
       </c>
-      <c r="E139" t="s">
-        <v>146</v>
+      <c r="E139" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G139" t="s">
+        <v>145</v>
+      </c>
+      <c r="H139" t="s">
         <v>162</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>174</v>
       </c>
-      <c r="J139" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K139" s="5" t="str">
+      <c r="J139" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K139" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L139" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 138
   title: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang sejak 30 September 2015
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -6383,34 +7334,41 @@
       <c r="D140" t="s">
         <v>126</v>
       </c>
-      <c r="E140" t="s">
-        <v>146</v>
+      <c r="E140" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140" t="s">
         <v>162</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>175</v>
       </c>
-      <c r="J140" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K140" s="5" t="str">
+      <c r="J140" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K140" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L140" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 139
   title: Tata Cara Penghitungan Kelebihan Pembayaran PPh,PPN,dan/atau PPnBM
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Pengembalian Kelebihan Pembayaran PPh,PPN,dan/atau PPnBM
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -6423,34 +7381,41 @@
       <c r="D141" t="s">
         <v>127</v>
       </c>
-      <c r="E141" t="s">
-        <v>146</v>
+      <c r="E141" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F141" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G141" t="s">
+        <v>145</v>
+      </c>
+      <c r="H141" t="s">
         <v>162</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>176</v>
       </c>
-      <c r="J141" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K141" s="5" t="str">
+      <c r="J141" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K141" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L141" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 140
   title: Pengembalian Pendahuluan Kelebihan Pajak untuk WP Dengan Kriteria Tertentu (tidak berlaku)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Ketentuan Lama
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>128</v>
       </c>
@@ -6463,34 +7428,41 @@
       <c r="D142" t="s">
         <v>128</v>
       </c>
-      <c r="E142" t="s">
-        <v>146</v>
+      <c r="E142" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G142" t="s">
+        <v>145</v>
+      </c>
+      <c r="H142" t="s">
         <v>162</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>176</v>
       </c>
-      <c r="J142" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K142" s="5" t="str">
+      <c r="J142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K142" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L142" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 141
   title: Pengembalian Pendahuluan Kelebihan Pajak untuk WP dengan Persyaratan Tertentu (tidak berlaku)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Ketentuan Lama
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>129</v>
       </c>
@@ -6503,34 +7475,41 @@
       <c r="D143" t="s">
         <v>129</v>
       </c>
-      <c r="E143" t="s">
-        <v>146</v>
+      <c r="E143" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G143" t="s">
+        <v>145</v>
+      </c>
+      <c r="H143" t="s">
         <v>162</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>176</v>
       </c>
-      <c r="J143" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K143" s="5" t="str">
+      <c r="J143" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K143" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L143" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 142
   title: Pengembalian Pendahuluan Kelebihan Pajak untuk WP dengan Persyaratan Tertentu (Ketentuan sejak 1 Januari 2014)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Ketentuan Lama
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>130</v>
       </c>
@@ -6543,34 +7522,41 @@
       <c r="D144" t="s">
         <v>130</v>
       </c>
-      <c r="E144" t="s">
-        <v>146</v>
+      <c r="E144" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G144" t="s">
+        <v>145</v>
+      </c>
+      <c r="H144" t="s">
         <v>162</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>177</v>
       </c>
-      <c r="J144" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K144" s="5" t="str">
+      <c r="J144" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K144" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L144" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 143
   title: PPKP Wajib Pajak Kriteria Tertentu
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Pengembalian Pendahuluan Kelebihan Pembayaran Pajak
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -6583,34 +7569,41 @@
       <c r="D145" t="s">
         <v>131</v>
       </c>
-      <c r="E145" t="s">
-        <v>146</v>
+      <c r="E145" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H145" t="s">
         <v>162</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>177</v>
       </c>
-      <c r="J145" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K145" s="5" t="str">
+      <c r="J145" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K145" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L145" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 144
   title: PPKP Wajib Pajak Persyaratan Tertentu
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Restitusi
   subtopik: Pengembalian Pendahuluan Kelebihan Pembayaran Pajak
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>132</v>
       </c>
@@ -6623,31 +7616,37 @@
       <c r="D146" t="s">
         <v>132</v>
       </c>
-      <c r="E146" t="s">
-        <v>146</v>
+      <c r="E146" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G146" t="s">
+        <v>145</v>
+      </c>
+      <c r="H146" t="s">
         <v>163</v>
       </c>
-      <c r="J146" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K146" s="5" t="str">
+      <c r="J146" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K146" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L146" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 145
   title: Imbalan Bunga (Sebelum 1 Januari 2014)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Imbalan Bunga
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>133</v>
       </c>
@@ -6660,34 +7659,41 @@
       <c r="D147" t="s">
         <v>133</v>
       </c>
-      <c r="E147" t="s">
-        <v>146</v>
+      <c r="E147" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G147" t="s">
+        <v>145</v>
+      </c>
+      <c r="H147" t="s">
         <v>163</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>178</v>
       </c>
-      <c r="J147" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K147" s="5" t="str">
+      <c r="J147" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K147" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L147" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 146
   title: Imbalan Bunga (Ketentuan Sejak 1 Januari 2014)
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Imbalan Bunga
   subtopik: Imbalan bunga sejak 1 Januari 2014
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>134</v>
       </c>
@@ -6700,34 +7706,41 @@
       <c r="D148" t="s">
         <v>134</v>
       </c>
-      <c r="E148" t="s">
-        <v>146</v>
+      <c r="E148" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F148" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G148" t="s">
+        <v>145</v>
+      </c>
+      <c r="H148" t="s">
         <v>163</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>178</v>
       </c>
-      <c r="J148" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K148" s="5" t="str">
+      <c r="J148" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K148" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L148" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 147
   title: Tata Cara Pemberian Imbalan Bunga
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Imbalan Bunga
   subtopik: Imbalan bunga sejak 1 Januari 2014
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -6740,92 +7753,133 @@
       <c r="D149" t="s">
         <v>135</v>
       </c>
-      <c r="E149" t="s">
-        <v>146</v>
+      <c r="E149" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F149" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G149" t="s">
+        <v>145</v>
+      </c>
+      <c r="H149" t="s">
         <v>163</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>178</v>
       </c>
-      <c r="J149" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K149" s="5" t="str">
+      <c r="J149" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K149" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L149" s="5" t="str">
         <f t="shared" si="2"/>
         <v>- id: 148
   title: Penyebab Diberikan Imbalan Bunga Dan Penghitungan Imbalan Bunganya
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Imbalan Bunga
   subtopik: Imbalan bunga sejak 1 Januari 2014
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>136</v>
       </c>
+      <c r="B150" t="s">
+        <v>144</v>
+      </c>
       <c r="C150">
         <v>149</v>
       </c>
       <c r="D150" t="s">
         <v>136</v>
       </c>
+      <c r="E150" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F150" t="s">
+        <v>146</v>
+      </c>
       <c r="G150" t="s">
+        <v>145</v>
+      </c>
+      <c r="H150" t="s">
         <v>164</v>
       </c>
-      <c r="J150" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K150" s="5" t="str">
+      <c r="J150" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K150" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L150" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> id: 149
+        <v>- id: 149
   title: Sunset Policy
-  fitur: 
-  category: 
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
+  fitur: resume
+  category: kup
   topik: Sunset policy
-  subtopik: 
-  icon: 
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+  icon: far fa-file-word
+  tgl: 11 Desember 2019</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>137</v>
       </c>
+      <c r="B151" t="s">
+        <v>144</v>
+      </c>
       <c r="C151">
         <v>150</v>
       </c>
       <c r="D151" t="s">
         <v>137</v>
       </c>
+      <c r="E151" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F151" t="s">
+        <v>146</v>
+      </c>
       <c r="G151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H151" t="s">
         <v>165</v>
       </c>
-      <c r="J151" s="4">
-        <v>43810</v>
-      </c>
-      <c r="K151" s="5" t="str">
+      <c r="J151" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K151" s="4">
+        <v>43810</v>
+      </c>
+      <c r="L151" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> id: 150
+        <v>- id: 150
   title: Pendaftaran Lembaga Keuangan
-  fitur: 
-  category: 
+  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
+  fitur: resume
+  category: kup
   topik: Akses Informasi Keuangan
-  subtopik: 
-  icon: 
+  icon: far fa-file-word
   tgl: 11 Desember 2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R151"/>
+  <autoFilter ref="A1:S151"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E151" r:id="rId2" display="https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/list-url-link.xlsx
+++ b/list-url-link.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ppn" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="kup" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">kup!$A$1:$S$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">kup!$A$1:$T$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pph!$A$1:$S$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ppn!$A$1:$S$129</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="508">
   <si>
     <t>Kode Klasifikasi Lapangan Usaha (KLU)</t>
   </si>
@@ -1546,6 +1546,15 @@
   </si>
   <si>
     <t>Kawasan Bebas PPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tgl_created:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  url:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tgl_updated: </t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L125" sqref="L2:L125"/>
     </sheetView>
@@ -13265,7 +13274,7 @@
         <v>43810</v>
       </c>
       <c r="L130" s="5" t="str">
-        <f t="shared" ref="L130:L161" si="2">B130&amp;$C$1&amp;C130&amp;CHAR(10)&amp;$D$1&amp;D130&amp;CHAR(10)&amp;$E$1&amp;E130&amp;CHAR(10)&amp;$F$1&amp;F130&amp;CHAR(10)&amp;$G$1&amp;G130&amp;CHAR(10)&amp;$H$1&amp;H130&amp;IF(I130=0,"",CHAR(10)&amp;$I$1)&amp;I130&amp;CHAR(10)&amp;$J$1&amp;J130&amp;CHAR(10)&amp;$K$1&amp;TEXT(K130,"dd mmmm yyyy")</f>
+        <f t="shared" ref="L130:L142" si="2">B130&amp;$C$1&amp;C130&amp;CHAR(10)&amp;$D$1&amp;D130&amp;CHAR(10)&amp;$E$1&amp;E130&amp;CHAR(10)&amp;$F$1&amp;F130&amp;CHAR(10)&amp;$G$1&amp;G130&amp;CHAR(10)&amp;$H$1&amp;H130&amp;IF(I130=0,"",CHAR(10)&amp;$I$1)&amp;I130&amp;CHAR(10)&amp;$J$1&amp;J130&amp;CHAR(10)&amp;$K$1&amp;TEXT(K130,"dd mmmm yyyy")</f>
         <v>- id: 129
   title: Revaluasi aktiva tetap untuk tahun 2015 dan 2016
   url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
@@ -14779,26 +14788,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S151"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="88.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="88.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>179</v>
       </c>
@@ -14806,31 +14818,34 @@
         <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="J1" t="s">
+        <v>505</v>
+      </c>
       <c r="K1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L1" t="s">
+        <v>507</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -14843,40 +14858,38 @@
       <c r="D2" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>191</v>
+      <c r="E2" t="s">
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L2" s="5" t="str">
-        <f>B2&amp;$C$1&amp;C2&amp;CHAR(10)&amp;$D$1&amp;D2&amp;CHAR(10)&amp;$E$1&amp;E2&amp;CHAR(10)&amp;$F$1&amp;F2&amp;CHAR(10)&amp;$G$1&amp;G2&amp;CHAR(10)&amp;$H$1&amp;H2&amp;IF(I2=0,"",CHAR(10)&amp;$I$1)&amp;I2&amp;CHAR(10)&amp;$J$1&amp;J2&amp;CHAR(10)&amp;$K$1&amp;TEXT(K2,"dd mmmm yyyy")</f>
+      <c r="I2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="str">
+        <f>B2&amp;$C$1&amp;C2&amp;CHAR(10)&amp;$D$1&amp;D2&amp;CHAR(10)&amp;$E$1&amp;E2&amp;CHAR(10)&amp;$F$1&amp;F2&amp;CHAR(10)&amp;$G$1&amp;G2&amp;IF(H2=0,"",CHAR(10)&amp;$H$1)&amp;H2&amp;CHAR(10)&amp;$I$1&amp;I2&amp;CHAR(10)&amp;$J$1&amp;TEXT(J2,"dd mmmm yyyy")</f>
         <v>- id: 1
   title: Saat Dimulainya Kewajiban Perpajakan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
   fitur: resume
   category: kup
   topik: Umum
   icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="S2" s="1" t="s">
+  tgl_created:  11 Desember 2019</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -14889,40 +14902,32 @@
       <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>191</v>
+      <c r="E3" t="s">
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L3" s="5" t="str">
-        <f t="shared" ref="L3:L66" si="0">B3&amp;$C$1&amp;C3&amp;CHAR(10)&amp;$D$1&amp;D3&amp;CHAR(10)&amp;$E$1&amp;E3&amp;CHAR(10)&amp;$F$1&amp;F3&amp;CHAR(10)&amp;$G$1&amp;G3&amp;CHAR(10)&amp;$H$1&amp;H3&amp;IF(I3=0,"",CHAR(10)&amp;$I$1)&amp;I3&amp;CHAR(10)&amp;$J$1&amp;J3&amp;CHAR(10)&amp;$K$1&amp;TEXT(K3,"dd mmmm yyyy")</f>
-        <v>- id: 2
-  title: Dokumen yang Wajib Disimpan oleh Wajib Pajak yang Melakukan Transaksi dengan Pihak Afiliasi
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5" t="e">
+        <f>B3&amp;$C$1&amp;C3&amp;CHAR(10)&amp;$D$1&amp;D3&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E3&amp;CHAR(10)&amp;$F$1&amp;F3&amp;CHAR(10)&amp;$G$1&amp;G3&amp;IF(H3=0,"",CHAR(10)&amp;$H$1)&amp;H3&amp;CHAR(10)&amp;$I$1&amp;I3&amp;CHAR(10)&amp;$J$1&amp;TEXT(J3,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -14935,40 +14940,32 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>191</v>
+      <c r="E4" t="s">
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 3
-  title: Kode Klasifikasi Lapangan Usaha (KLU)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5" t="e">
+        <f>B4&amp;$C$1&amp;C4&amp;CHAR(10)&amp;$D$1&amp;D4&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E4&amp;CHAR(10)&amp;$F$1&amp;F4&amp;CHAR(10)&amp;$G$1&amp;G4&amp;IF(H4=0,"",CHAR(10)&amp;$H$1)&amp;H4&amp;CHAR(10)&amp;$I$1&amp;I4&amp;CHAR(10)&amp;$J$1&amp;TEXT(J4,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -14981,40 +14978,32 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>191</v>
+      <c r="E5" t="s">
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 4
-  title: Layanan unggulan bidang perpajakan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5" t="e">
+        <f>B5&amp;$C$1&amp;C5&amp;CHAR(10)&amp;$D$1&amp;D5&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E5&amp;CHAR(10)&amp;$F$1&amp;F5&amp;CHAR(10)&amp;$G$1&amp;G5&amp;IF(H5=0,"",CHAR(10)&amp;$H$1)&amp;H5&amp;CHAR(10)&amp;$I$1&amp;I5&amp;CHAR(10)&amp;$J$1&amp;TEXT(J5,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -15027,40 +15016,32 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>191</v>
+      <c r="E6" t="s">
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 5
-  title: Surat Keterangan Fiskal (SKF)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5" t="e">
+        <f>B6&amp;$C$1&amp;C6&amp;CHAR(10)&amp;$D$1&amp;D6&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E6&amp;CHAR(10)&amp;$F$1&amp;F6&amp;CHAR(10)&amp;$G$1&amp;G6&amp;IF(H6=0,"",CHAR(10)&amp;$H$1)&amp;H6&amp;CHAR(10)&amp;$I$1&amp;I6&amp;CHAR(10)&amp;$J$1&amp;TEXT(J6,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -15073,37 +15054,29 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>191</v>
+      <c r="E7" t="s">
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 6
-  title: Permintaan Penjelasan atas Data dan/atau Keterangan dan Kunjungan (Visit) kepada Wajib Pajak.
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5" t="e">
+        <f>B7&amp;$C$1&amp;C7&amp;CHAR(10)&amp;$D$1&amp;D7&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E7&amp;CHAR(10)&amp;$F$1&amp;F7&amp;CHAR(10)&amp;$G$1&amp;G7&amp;IF(H7=0,"",CHAR(10)&amp;$H$1)&amp;H7&amp;CHAR(10)&amp;$I$1&amp;I7&amp;CHAR(10)&amp;$J$1&amp;TEXT(J7,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15116,37 +15089,29 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>191</v>
+      <c r="E8" t="s">
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 7
-  title: Tindak Lanjut Surat Himbauan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5" t="e">
+        <f>B8&amp;$C$1&amp;C8&amp;CHAR(10)&amp;$D$1&amp;D8&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E8&amp;CHAR(10)&amp;$F$1&amp;F8&amp;CHAR(10)&amp;$G$1&amp;G8&amp;IF(H8=0,"",CHAR(10)&amp;$H$1)&amp;H8&amp;CHAR(10)&amp;$I$1&amp;I8&amp;CHAR(10)&amp;$J$1&amp;TEXT(J8,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15159,37 +15124,29 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>191</v>
+      <c r="E9" t="s">
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 8
-  title: Surat Kuasa Khusus
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5" t="e">
+        <f>B9&amp;$C$1&amp;C9&amp;CHAR(10)&amp;$D$1&amp;D9&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E9&amp;CHAR(10)&amp;$F$1&amp;F9&amp;CHAR(10)&amp;$G$1&amp;G9&amp;IF(H9=0,"",CHAR(10)&amp;$H$1)&amp;H9&amp;CHAR(10)&amp;$I$1&amp;I9&amp;CHAR(10)&amp;$J$1&amp;TEXT(J9,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15202,37 +15159,29 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>191</v>
+      <c r="E10" t="s">
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 9
-  title: Penentuan SPDN dan SPLN
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5" t="e">
+        <f>B10&amp;$C$1&amp;C10&amp;CHAR(10)&amp;$D$1&amp;D10&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E10&amp;CHAR(10)&amp;$F$1&amp;F10&amp;CHAR(10)&amp;$G$1&amp;G10&amp;IF(H10=0,"",CHAR(10)&amp;$H$1)&amp;H10&amp;CHAR(10)&amp;$I$1&amp;I10&amp;CHAR(10)&amp;$J$1&amp;TEXT(J10,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15245,37 +15194,29 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>191</v>
+      <c r="E11" t="s">
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K11" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 10
-  title: Jenis Pelayanan Kepada WP yang Diberikan oleh KPP dan Kanwil DJP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5" t="e">
+        <f>B11&amp;$C$1&amp;C11&amp;CHAR(10)&amp;$D$1&amp;D11&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E11&amp;CHAR(10)&amp;$F$1&amp;F11&amp;CHAR(10)&amp;$G$1&amp;G11&amp;IF(H11=0,"",CHAR(10)&amp;$H$1)&amp;H11&amp;CHAR(10)&amp;$I$1&amp;I11&amp;CHAR(10)&amp;$J$1&amp;TEXT(J11,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15288,37 +15229,29 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>191</v>
+      <c r="E12" t="s">
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K12" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 11
-  title: Tata cara verifikasi
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5" t="e">
+        <f>B12&amp;$C$1&amp;C12&amp;CHAR(10)&amp;$D$1&amp;D12&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E12&amp;CHAR(10)&amp;$F$1&amp;F12&amp;CHAR(10)&amp;$G$1&amp;G12&amp;IF(H12=0,"",CHAR(10)&amp;$H$1)&amp;H12&amp;CHAR(10)&amp;$I$1&amp;I12&amp;CHAR(10)&amp;$J$1&amp;TEXT(J12,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -15331,37 +15264,29 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>191</v>
+      <c r="E13" t="s">
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 12
-  title: DJP Online
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5" t="e">
+        <f>B13&amp;$C$1&amp;C13&amp;CHAR(10)&amp;$D$1&amp;D13&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E13&amp;CHAR(10)&amp;$F$1&amp;F13&amp;CHAR(10)&amp;$G$1&amp;G13&amp;IF(H13=0,"",CHAR(10)&amp;$H$1)&amp;H13&amp;CHAR(10)&amp;$I$1&amp;I13&amp;CHAR(10)&amp;$J$1&amp;TEXT(J13,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -15374,37 +15299,29 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>191</v>
+      <c r="E14" t="s">
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 13
-  title: Konfirmasi Status Wajib Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Umum
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5" t="e">
+        <f>B14&amp;$C$1&amp;C14&amp;CHAR(10)&amp;$D$1&amp;D14&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E14&amp;CHAR(10)&amp;$F$1&amp;F14&amp;CHAR(10)&amp;$G$1&amp;G14&amp;IF(H14=0,"",CHAR(10)&amp;$H$1)&amp;H14&amp;CHAR(10)&amp;$I$1&amp;I14&amp;CHAR(10)&amp;$J$1&amp;TEXT(J14,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -15417,37 +15334,29 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>191</v>
+      <c r="E15" t="s">
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 14
-  title: Tata cara ekstensifikasi
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5" t="e">
+        <f>B15&amp;$C$1&amp;C15&amp;CHAR(10)&amp;$D$1&amp;D15&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E15&amp;CHAR(10)&amp;$F$1&amp;F15&amp;CHAR(10)&amp;$G$1&amp;G15&amp;IF(H15=0,"",CHAR(10)&amp;$H$1)&amp;H15&amp;CHAR(10)&amp;$I$1&amp;I15&amp;CHAR(10)&amp;$J$1&amp;TEXT(J15,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -15460,37 +15369,29 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>191</v>
+      <c r="E16" t="s">
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 15
-  title: Ketentuan Umum terkait NPWP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5" t="e">
+        <f>B16&amp;$C$1&amp;C16&amp;CHAR(10)&amp;$D$1&amp;D16&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E16&amp;CHAR(10)&amp;$F$1&amp;F16&amp;CHAR(10)&amp;$G$1&amp;G16&amp;IF(H16=0,"",CHAR(10)&amp;$H$1)&amp;H16&amp;CHAR(10)&amp;$I$1&amp;I16&amp;CHAR(10)&amp;$J$1&amp;TEXT(J16,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -15503,41 +15404,32 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>191</v>
+      <c r="E17" t="s">
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 16
-  title: NPWP bagi Wanita Kawin
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5" t="e">
+        <f>B17&amp;$C$1&amp;C17&amp;CHAR(10)&amp;$D$1&amp;D17&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E17&amp;CHAR(10)&amp;$F$1&amp;F17&amp;CHAR(10)&amp;$G$1&amp;G17&amp;IF(H17=0,"",CHAR(10)&amp;$H$1)&amp;H17&amp;CHAR(10)&amp;$I$1&amp;I17&amp;CHAR(10)&amp;$J$1&amp;TEXT(J17,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -15550,41 +15442,32 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>191</v>
+      <c r="E18" t="s">
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 17
-  title: Pendaftaran NPWP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5" t="e">
+        <f>B18&amp;$C$1&amp;C18&amp;CHAR(10)&amp;$D$1&amp;D18&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E18&amp;CHAR(10)&amp;$F$1&amp;F18&amp;CHAR(10)&amp;$G$1&amp;G18&amp;IF(H18=0,"",CHAR(10)&amp;$H$1)&amp;H18&amp;CHAR(10)&amp;$I$1&amp;I18&amp;CHAR(10)&amp;$J$1&amp;TEXT(J18,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -15597,41 +15480,32 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>191</v>
+      <c r="E19" t="s">
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K19" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 18
-  title: Penghapusan NPWP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5" t="e">
+        <f>B19&amp;$C$1&amp;C19&amp;CHAR(10)&amp;$D$1&amp;D19&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E19&amp;CHAR(10)&amp;$F$1&amp;F19&amp;CHAR(10)&amp;$G$1&amp;G19&amp;IF(H19=0,"",CHAR(10)&amp;$H$1)&amp;H19&amp;CHAR(10)&amp;$I$1&amp;I19&amp;CHAR(10)&amp;$J$1&amp;TEXT(J19,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -15644,41 +15518,32 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>191</v>
+      <c r="E20" t="s">
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K20" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 19
-  title: Pengukuhan PKP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5" t="e">
+        <f>B20&amp;$C$1&amp;C20&amp;CHAR(10)&amp;$D$1&amp;D20&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E20&amp;CHAR(10)&amp;$F$1&amp;F20&amp;CHAR(10)&amp;$G$1&amp;G20&amp;IF(H20=0,"",CHAR(10)&amp;$H$1)&amp;H20&amp;CHAR(10)&amp;$I$1&amp;I20&amp;CHAR(10)&amp;$J$1&amp;TEXT(J20,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -15691,41 +15556,32 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>191</v>
+      <c r="E21" t="s">
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 20
-  title: Pencabutan Pengukuhan PKP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5" t="e">
+        <f>B21&amp;$C$1&amp;C21&amp;CHAR(10)&amp;$D$1&amp;D21&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E21&amp;CHAR(10)&amp;$F$1&amp;F21&amp;CHAR(10)&amp;$G$1&amp;G21&amp;IF(H21=0,"",CHAR(10)&amp;$H$1)&amp;H21&amp;CHAR(10)&amp;$I$1&amp;I21&amp;CHAR(10)&amp;$J$1&amp;TEXT(J21,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -15738,41 +15594,32 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>191</v>
+      <c r="E22" t="s">
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K22" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 21
-  title: Perubahan Data WP Dan/Atau PKP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5" t="e">
+        <f>B22&amp;$C$1&amp;C22&amp;CHAR(10)&amp;$D$1&amp;D22&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E22&amp;CHAR(10)&amp;$F$1&amp;F22&amp;CHAR(10)&amp;$G$1&amp;G22&amp;IF(H22=0,"",CHAR(10)&amp;$H$1)&amp;H22&amp;CHAR(10)&amp;$I$1&amp;I22&amp;CHAR(10)&amp;$J$1&amp;TEXT(J22,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -15785,41 +15632,32 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>191</v>
+      <c r="E23" t="s">
+        <v>146</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K23" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 22
-  title: Pemindahan WP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5" t="e">
+        <f>B23&amp;$C$1&amp;C23&amp;CHAR(10)&amp;$D$1&amp;D23&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E23&amp;CHAR(10)&amp;$F$1&amp;F23&amp;CHAR(10)&amp;$G$1&amp;G23&amp;IF(H23=0,"",CHAR(10)&amp;$H$1)&amp;H23&amp;CHAR(10)&amp;$I$1&amp;I23&amp;CHAR(10)&amp;$J$1&amp;TEXT(J23,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -15832,41 +15670,32 @@
       <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>191</v>
+      <c r="E24" t="s">
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 23
-  title: Penetapan WP Sebagai WP Non Efektif
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5" t="e">
+        <f>B24&amp;$C$1&amp;C24&amp;CHAR(10)&amp;$D$1&amp;D24&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E24&amp;CHAR(10)&amp;$F$1&amp;F24&amp;CHAR(10)&amp;$G$1&amp;G24&amp;IF(H24=0,"",CHAR(10)&amp;$H$1)&amp;H24&amp;CHAR(10)&amp;$I$1&amp;I24&amp;CHAR(10)&amp;$J$1&amp;TEXT(J24,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -15879,41 +15708,32 @@
       <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>191</v>
+      <c r="E25" t="s">
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K25" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 24
-  title: Pencabutan Pengukuhan PKP secara Jabatan atas Pengusaha Kecil 2014
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak Atau setelah 30 Mei 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5" t="e">
+        <f>B25&amp;$C$1&amp;C25&amp;CHAR(10)&amp;$D$1&amp;D25&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E25&amp;CHAR(10)&amp;$F$1&amp;F25&amp;CHAR(10)&amp;$G$1&amp;G25&amp;IF(H25=0,"",CHAR(10)&amp;$H$1)&amp;H25&amp;CHAR(10)&amp;$I$1&amp;I25&amp;CHAR(10)&amp;$J$1&amp;TEXT(J25,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -15926,41 +15746,32 @@
       <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>191</v>
+      <c r="E26" t="s">
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" t="s">
         <v>150</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 25
-  title: Tempat Pendaftaran NPWP WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora (Sejak 1 Januari 2013)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Tempat pendaftaran WP Tertentu
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5" t="e">
+        <f>B26&amp;$C$1&amp;C26&amp;CHAR(10)&amp;$D$1&amp;D26&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E26&amp;CHAR(10)&amp;$F$1&amp;F26&amp;CHAR(10)&amp;$G$1&amp;G26&amp;IF(H26=0,"",CHAR(10)&amp;$H$1)&amp;H26&amp;CHAR(10)&amp;$I$1&amp;I26&amp;CHAR(10)&amp;$J$1&amp;TEXT(J26,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -15973,41 +15784,32 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>191</v>
+      <c r="E27" t="s">
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" t="s">
         <v>150</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K27" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 26
-  title: Tempat Pendaftaran NPWP WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora Tertentu (Sejak 30 Maret 2012)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Tempat pendaftaran WP Tertentu
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5" t="e">
+        <f>B27&amp;$C$1&amp;C27&amp;CHAR(10)&amp;$D$1&amp;D27&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E27&amp;CHAR(10)&amp;$F$1&amp;F27&amp;CHAR(10)&amp;$G$1&amp;G27&amp;IF(H27=0,"",CHAR(10)&amp;$H$1)&amp;H27&amp;CHAR(10)&amp;$I$1&amp;I27&amp;CHAR(10)&amp;$J$1&amp;TEXT(J27,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -16020,41 +15822,32 @@
       <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>191</v>
+      <c r="E28" t="s">
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 27
-  title: Tempat Pendaftaran NPWP WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora (sebelum 30 Maret 2012)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Tempat pendaftaran WP Tertentu
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5" t="e">
+        <f>B28&amp;$C$1&amp;C28&amp;CHAR(10)&amp;$D$1&amp;D28&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E28&amp;CHAR(10)&amp;$F$1&amp;F28&amp;CHAR(10)&amp;$G$1&amp;G28&amp;IF(H28=0,"",CHAR(10)&amp;$H$1)&amp;H28&amp;CHAR(10)&amp;$I$1&amp;I28&amp;CHAR(10)&amp;$J$1&amp;TEXT(J28,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -16067,41 +15860,32 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>191</v>
+      <c r="E29" t="s">
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 28
-  title: Pelaksanaan Hak dan Kewajiban sehubungan dengan Pemindahan WP KPP WP Besar, KPP Madya, KPP PMA, KPP Badora
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Tempat pendaftaran WP Tertentu
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5" t="e">
+        <f>B29&amp;$C$1&amp;C29&amp;CHAR(10)&amp;$D$1&amp;D29&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E29&amp;CHAR(10)&amp;$F$1&amp;F29&amp;CHAR(10)&amp;$G$1&amp;G29&amp;IF(H29=0,"",CHAR(10)&amp;$H$1)&amp;H29&amp;CHAR(10)&amp;$I$1&amp;I29&amp;CHAR(10)&amp;$J$1&amp;TEXT(J29,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -16114,41 +15898,32 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>191</v>
+      <c r="E30" t="s">
+        <v>146</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" t="s">
         <v>150</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 29
-  title: Tempat Pendaftaran/Pelaporan PKP bagi WP yang Usahanya di Bidang Pengalihan Tanah/Bangunan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Tempat pendaftaran WP Tertentu
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5" t="e">
+        <f>B30&amp;$C$1&amp;C30&amp;CHAR(10)&amp;$D$1&amp;D30&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E30&amp;CHAR(10)&amp;$F$1&amp;F30&amp;CHAR(10)&amp;$G$1&amp;G30&amp;IF(H30=0,"",CHAR(10)&amp;$H$1)&amp;H30&amp;CHAR(10)&amp;$I$1&amp;I30&amp;CHAR(10)&amp;$J$1&amp;TEXT(J30,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -16161,41 +15936,32 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>191</v>
+      <c r="E31" t="s">
+        <v>146</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
-      </c>
-      <c r="I31" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 30
-  title: Pendaftaran NPWP dan Pengukuhan PKP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak 30 September 2015
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5" t="e">
+        <f>B31&amp;$C$1&amp;C31&amp;CHAR(10)&amp;$D$1&amp;D31&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E31&amp;CHAR(10)&amp;$F$1&amp;F31&amp;CHAR(10)&amp;$G$1&amp;G31&amp;IF(H31=0,"",CHAR(10)&amp;$H$1)&amp;H31&amp;CHAR(10)&amp;$I$1&amp;I31&amp;CHAR(10)&amp;$J$1&amp;TEXT(J31,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -16208,41 +15974,32 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>191</v>
+      <c r="E32" t="s">
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 31
-  title: Penghapusan NPWP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak 30 September 2015
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5" t="e">
+        <f>B32&amp;$C$1&amp;C32&amp;CHAR(10)&amp;$D$1&amp;D32&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E32&amp;CHAR(10)&amp;$F$1&amp;F32&amp;CHAR(10)&amp;$G$1&amp;G32&amp;IF(H32=0,"",CHAR(10)&amp;$H$1)&amp;H32&amp;CHAR(10)&amp;$I$1&amp;I32&amp;CHAR(10)&amp;$J$1&amp;TEXT(J32,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -16255,41 +16012,32 @@
       <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>191</v>
+      <c r="E33" t="s">
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K33" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 32
-  title: Pencabutan PKP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak 30 September 2015
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5" t="e">
+        <f>B33&amp;$C$1&amp;C33&amp;CHAR(10)&amp;$D$1&amp;D33&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E33&amp;CHAR(10)&amp;$F$1&amp;F33&amp;CHAR(10)&amp;$G$1&amp;G33&amp;IF(H33=0,"",CHAR(10)&amp;$H$1)&amp;H33&amp;CHAR(10)&amp;$I$1&amp;I33&amp;CHAR(10)&amp;$J$1&amp;TEXT(J33,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -16302,41 +16050,32 @@
       <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>191</v>
+      <c r="E34" t="s">
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34" t="s">
         <v>154</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K34" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 33
-  title: Pendaftaran NPWP dan Pengukuhan PKP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak 1 November 2017
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5" t="e">
+        <f>B34&amp;$C$1&amp;C34&amp;CHAR(10)&amp;$D$1&amp;D34&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E34&amp;CHAR(10)&amp;$F$1&amp;F34&amp;CHAR(10)&amp;$G$1&amp;G34&amp;IF(H34=0,"",CHAR(10)&amp;$H$1)&amp;H34&amp;CHAR(10)&amp;$I$1&amp;I34&amp;CHAR(10)&amp;$J$1&amp;TEXT(J34,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -16349,41 +16088,32 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>191</v>
+      <c r="E35" t="s">
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K35" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 34
-  title: Penghapusan NPWP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: NPWP dan PKP
-  subtopik: Ketentuan Sejak 1 November 2017
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5" t="e">
+        <f>B35&amp;$C$1&amp;C35&amp;CHAR(10)&amp;$D$1&amp;D35&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E35&amp;CHAR(10)&amp;$F$1&amp;F35&amp;CHAR(10)&amp;$G$1&amp;G35&amp;IF(H35=0,"",CHAR(10)&amp;$H$1)&amp;H35&amp;CHAR(10)&amp;$I$1&amp;I35&amp;CHAR(10)&amp;$J$1&amp;TEXT(J35,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -16396,41 +16126,32 @@
       <c r="D36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>191</v>
+      <c r="E36" t="s">
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I36" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K36" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 35
-  title: Ketentuan Umum Terkait SPT
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5" t="e">
+        <f>B36&amp;$C$1&amp;C36&amp;CHAR(10)&amp;$D$1&amp;D36&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E36&amp;CHAR(10)&amp;$F$1&amp;F36&amp;CHAR(10)&amp;$G$1&amp;G36&amp;IF(H36=0,"",CHAR(10)&amp;$H$1)&amp;H36&amp;CHAR(10)&amp;$I$1&amp;I36&amp;CHAR(10)&amp;$J$1&amp;TEXT(J36,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -16443,41 +16164,32 @@
       <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>191</v>
+      <c r="E37" t="s">
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" t="s">
         <v>166</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 36
-  title: Penyampaian SPT Tahunan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5" t="e">
+        <f>B37&amp;$C$1&amp;C37&amp;CHAR(10)&amp;$D$1&amp;D37&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E37&amp;CHAR(10)&amp;$F$1&amp;F37&amp;CHAR(10)&amp;$G$1&amp;G37&amp;IF(H37=0,"",CHAR(10)&amp;$H$1)&amp;H37&amp;CHAR(10)&amp;$I$1&amp;I37&amp;CHAR(10)&amp;$J$1&amp;TEXT(J37,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -16490,41 +16202,32 @@
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>191</v>
+      <c r="E38" t="s">
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
-      </c>
-      <c r="I38" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K38" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 37
-  title: Penyampaian SPT Elektronik (e-SPT)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5" t="e">
+        <f>B38&amp;$C$1&amp;C38&amp;CHAR(10)&amp;$D$1&amp;D38&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E38&amp;CHAR(10)&amp;$F$1&amp;F38&amp;CHAR(10)&amp;$G$1&amp;G38&amp;IF(H38=0,"",CHAR(10)&amp;$H$1)&amp;H38&amp;CHAR(10)&amp;$I$1&amp;I38&amp;CHAR(10)&amp;$J$1&amp;TEXT(J38,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -16537,41 +16240,32 @@
       <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>191</v>
+      <c r="E39" t="s">
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" t="s">
         <v>166</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K39" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 38
-  title: Batas Waktu Pembayaran, Penyetoran, Penyampaian SPT, dan Sanksi Keterlambatan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5" t="e">
+        <f>B39&amp;$C$1&amp;C39&amp;CHAR(10)&amp;$D$1&amp;D39&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E39&amp;CHAR(10)&amp;$F$1&amp;F39&amp;CHAR(10)&amp;$G$1&amp;G39&amp;IF(H39=0,"",CHAR(10)&amp;$H$1)&amp;H39&amp;CHAR(10)&amp;$I$1&amp;I39&amp;CHAR(10)&amp;$J$1&amp;TEXT(J39,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -16584,41 +16278,32 @@
       <c r="D40" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>191</v>
+      <c r="E40" t="s">
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I40" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K40" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 39
-  title: Pengangsuran dan Penundaan pembayaran SPT Tahunan PPh
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5" t="e">
+        <f>B40&amp;$C$1&amp;C40&amp;CHAR(10)&amp;$D$1&amp;D40&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E40&amp;CHAR(10)&amp;$F$1&amp;F40&amp;CHAR(10)&amp;$G$1&amp;G40&amp;IF(H40=0,"",CHAR(10)&amp;$H$1)&amp;H40&amp;CHAR(10)&amp;$I$1&amp;I40&amp;CHAR(10)&amp;$J$1&amp;TEXT(J40,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -16631,41 +16316,32 @@
       <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>191</v>
+      <c r="E41" t="s">
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I41" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K41" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 40
-  title: Perpanjangan Penyampaian SPT Tahunan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J41" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5" t="e">
+        <f>B41&amp;$C$1&amp;C41&amp;CHAR(10)&amp;$D$1&amp;D41&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E41&amp;CHAR(10)&amp;$F$1&amp;F41&amp;CHAR(10)&amp;$G$1&amp;G41&amp;IF(H41=0,"",CHAR(10)&amp;$H$1)&amp;H41&amp;CHAR(10)&amp;$I$1&amp;I41&amp;CHAR(10)&amp;$J$1&amp;TEXT(J41,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -16678,41 +16354,32 @@
       <c r="D42" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>191</v>
+      <c r="E42" t="s">
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
-      </c>
-      <c r="I42" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 41
-  title: Penyampaian e-SPT bagi WP KPP Madya, KPP WP Besar, KPP PMA, KPP Badora
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="5" t="e">
+        <f>B42&amp;$C$1&amp;C42&amp;CHAR(10)&amp;$D$1&amp;D42&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E42&amp;CHAR(10)&amp;$F$1&amp;F42&amp;CHAR(10)&amp;$G$1&amp;G42&amp;IF(H42=0,"",CHAR(10)&amp;$H$1)&amp;H42&amp;CHAR(10)&amp;$I$1&amp;I42&amp;CHAR(10)&amp;$J$1&amp;TEXT(J42,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -16725,41 +16392,32 @@
       <c r="D43" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>191</v>
+      <c r="E43" t="s">
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K43" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 42
-  title: Pembetulan SPT
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5" t="e">
+        <f>B43&amp;$C$1&amp;C43&amp;CHAR(10)&amp;$D$1&amp;D43&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E43&amp;CHAR(10)&amp;$F$1&amp;F43&amp;CHAR(10)&amp;$G$1&amp;G43&amp;IF(H43=0,"",CHAR(10)&amp;$H$1)&amp;H43&amp;CHAR(10)&amp;$I$1&amp;I43&amp;CHAR(10)&amp;$J$1&amp;TEXT(J43,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -16772,41 +16430,32 @@
       <c r="D44" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>191</v>
+      <c r="E44" t="s">
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K44" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 43
-  title: Pengungkapan ketidakbenaran Pengisian SPT &amp; Pengungkapan Ketidakbenaran Perbuatan WP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5" t="e">
+        <f>B44&amp;$C$1&amp;C44&amp;CHAR(10)&amp;$D$1&amp;D44&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E44&amp;CHAR(10)&amp;$F$1&amp;F44&amp;CHAR(10)&amp;$G$1&amp;G44&amp;IF(H44=0,"",CHAR(10)&amp;$H$1)&amp;H44&amp;CHAR(10)&amp;$I$1&amp;I44&amp;CHAR(10)&amp;$J$1&amp;TEXT(J44,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -16819,41 +16468,32 @@
       <c r="D45" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>191</v>
+      <c r="E45" t="s">
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
-      </c>
-      <c r="I45" t="s">
         <v>166</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 44
-  title: Penyedia Layanan SPT Elektronik
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: Ketentuan Terkait SPT
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5" t="e">
+        <f>B45&amp;$C$1&amp;C45&amp;CHAR(10)&amp;$D$1&amp;D45&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E45&amp;CHAR(10)&amp;$F$1&amp;F45&amp;CHAR(10)&amp;$G$1&amp;G45&amp;IF(H45=0,"",CHAR(10)&amp;$H$1)&amp;H45&amp;CHAR(10)&amp;$I$1&amp;I45&amp;CHAR(10)&amp;$J$1&amp;TEXT(J45,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -16866,41 +16506,32 @@
       <c r="D46" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>191</v>
+      <c r="E46" t="s">
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H46" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K46" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 45
-  title: SPT Tahunan PPh OP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Tahunan PPh OP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5" t="e">
+        <f>B46&amp;$C$1&amp;C46&amp;CHAR(10)&amp;$D$1&amp;D46&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E46&amp;CHAR(10)&amp;$F$1&amp;F46&amp;CHAR(10)&amp;$G$1&amp;G46&amp;IF(H46=0,"",CHAR(10)&amp;$H$1)&amp;H46&amp;CHAR(10)&amp;$I$1&amp;I46&amp;CHAR(10)&amp;$J$1&amp;TEXT(J46,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -16913,41 +16544,32 @@
       <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>191</v>
+      <c r="E47" t="s">
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
-      </c>
-      <c r="I47" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K47" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 46
-  title: Penghasilan Tidak Kena Pajak (PTKP)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Tahunan PPh OP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5" t="e">
+        <f>B47&amp;$C$1&amp;C47&amp;CHAR(10)&amp;$D$1&amp;D47&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E47&amp;CHAR(10)&amp;$F$1&amp;F47&amp;CHAR(10)&amp;$G$1&amp;G47&amp;IF(H47=0,"",CHAR(10)&amp;$H$1)&amp;H47&amp;CHAR(10)&amp;$I$1&amp;I47&amp;CHAR(10)&amp;$J$1&amp;TEXT(J47,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -16960,41 +16582,32 @@
       <c r="D48" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>191</v>
+      <c r="E48" t="s">
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
-      </c>
-      <c r="I48" t="s">
         <v>41</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 47
-  title: SPT Tahunan PPh Badan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Tahunan PPh Badan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5" t="e">
+        <f>B48&amp;$C$1&amp;C48&amp;CHAR(10)&amp;$D$1&amp;D48&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E48&amp;CHAR(10)&amp;$F$1&amp;F48&amp;CHAR(10)&amp;$G$1&amp;G48&amp;IF(H48=0,"",CHAR(10)&amp;$H$1)&amp;H48&amp;CHAR(10)&amp;$I$1&amp;I48&amp;CHAR(10)&amp;$J$1&amp;TEXT(J48,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -17007,41 +16620,32 @@
       <c r="D49" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>191</v>
+      <c r="E49" t="s">
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
-      </c>
-      <c r="I49" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K49" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 48
-  title: SPT Tahunan PPh Migas
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Tahunan PPh Badan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5" t="e">
+        <f>B49&amp;$C$1&amp;C49&amp;CHAR(10)&amp;$D$1&amp;D49&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E49&amp;CHAR(10)&amp;$F$1&amp;F49&amp;CHAR(10)&amp;$G$1&amp;G49&amp;IF(H49=0,"",CHAR(10)&amp;$H$1)&amp;H49&amp;CHAR(10)&amp;$I$1&amp;I49&amp;CHAR(10)&amp;$J$1&amp;TEXT(J49,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -17054,41 +16658,32 @@
       <c r="D50" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>191</v>
+      <c r="E50" t="s">
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
-      </c>
-      <c r="I50" t="s">
         <v>167</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 49
-  title: SPT Masa PPN sejak Masa Juli 2015
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5" t="e">
+        <f>B50&amp;$C$1&amp;C50&amp;CHAR(10)&amp;$D$1&amp;D50&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E50&amp;CHAR(10)&amp;$F$1&amp;F50&amp;CHAR(10)&amp;$G$1&amp;G50&amp;IF(H50=0,"",CHAR(10)&amp;$H$1)&amp;H50&amp;CHAR(10)&amp;$I$1&amp;I50&amp;CHAR(10)&amp;$J$1&amp;TEXT(J50,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -17101,41 +16696,32 @@
       <c r="D51" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>191</v>
+      <c r="E51" t="s">
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
-      </c>
-      <c r="I51" t="s">
         <v>167</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K51" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 50
-  title: Perbedaan SPT masa PPN 1107, 1108, 1111
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5" t="e">
+        <f>B51&amp;$C$1&amp;C51&amp;CHAR(10)&amp;$D$1&amp;D51&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E51&amp;CHAR(10)&amp;$F$1&amp;F51&amp;CHAR(10)&amp;$G$1&amp;G51&amp;IF(H51=0,"",CHAR(10)&amp;$H$1)&amp;H51&amp;CHAR(10)&amp;$I$1&amp;I51&amp;CHAR(10)&amp;$J$1&amp;TEXT(J51,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -17148,41 +16734,32 @@
       <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>191</v>
+      <c r="E52" t="s">
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
-      </c>
-      <c r="I52" t="s">
         <v>167</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K52" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 51
-  title: Kewajiban E-SPT bagi WP di KPP Madya dan KPP di Wilayah Kanwil Jakarta Khusus dan Kanwil WP Besar
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5" t="e">
+        <f>B52&amp;$C$1&amp;C52&amp;CHAR(10)&amp;$D$1&amp;D52&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E52&amp;CHAR(10)&amp;$F$1&amp;F52&amp;CHAR(10)&amp;$G$1&amp;G52&amp;IF(H52=0,"",CHAR(10)&amp;$H$1)&amp;H52&amp;CHAR(10)&amp;$I$1&amp;I52&amp;CHAR(10)&amp;$J$1&amp;TEXT(J52,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -17195,41 +16772,32 @@
       <c r="D53" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>191</v>
+      <c r="E53" t="s">
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
-      </c>
-      <c r="I53" t="s">
         <v>167</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K53" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 52
-  title: SPT 1111 Sejak Masa Juni 2013
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5" t="e">
+        <f>B53&amp;$C$1&amp;C53&amp;CHAR(10)&amp;$D$1&amp;D53&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E53&amp;CHAR(10)&amp;$F$1&amp;F53&amp;CHAR(10)&amp;$G$1&amp;G53&amp;IF(H53=0,"",CHAR(10)&amp;$H$1)&amp;H53&amp;CHAR(10)&amp;$I$1&amp;I53&amp;CHAR(10)&amp;$J$1&amp;TEXT(J53,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -17242,41 +16810,32 @@
       <c r="D54" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>191</v>
+      <c r="E54" t="s">
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
-      </c>
-      <c r="I54" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K54" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 53
-  title: SPT 1111 DM sejak Masa Juni 2013
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5" t="e">
+        <f>B54&amp;$C$1&amp;C54&amp;CHAR(10)&amp;$D$1&amp;D54&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E54&amp;CHAR(10)&amp;$F$1&amp;F54&amp;CHAR(10)&amp;$G$1&amp;G54&amp;IF(H54=0,"",CHAR(10)&amp;$H$1)&amp;H54&amp;CHAR(10)&amp;$I$1&amp;I54&amp;CHAR(10)&amp;$J$1&amp;TEXT(J54,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -17289,41 +16848,32 @@
       <c r="D55" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>191</v>
+      <c r="E55" t="s">
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I55" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K55" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 54
-  title: SPT 1111 DM Masa Januari 2011 s/d Mei 2013
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5" t="e">
+        <f>B55&amp;$C$1&amp;C55&amp;CHAR(10)&amp;$D$1&amp;D55&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E55&amp;CHAR(10)&amp;$F$1&amp;F55&amp;CHAR(10)&amp;$G$1&amp;G55&amp;IF(H55=0,"",CHAR(10)&amp;$H$1)&amp;H55&amp;CHAR(10)&amp;$I$1&amp;I55&amp;CHAR(10)&amp;$J$1&amp;TEXT(J55,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -17336,41 +16886,32 @@
       <c r="D56" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>191</v>
+      <c r="E56" t="s">
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
-      </c>
-      <c r="I56" t="s">
         <v>167</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K56" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 55
-  title: SPT 1111 Sejak Masa Januari 2011 s/d Mei 2013
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J56" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5" t="e">
+        <f>B56&amp;$C$1&amp;C56&amp;CHAR(10)&amp;$D$1&amp;D56&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E56&amp;CHAR(10)&amp;$F$1&amp;F56&amp;CHAR(10)&amp;$G$1&amp;G56&amp;IF(H56=0,"",CHAR(10)&amp;$H$1)&amp;H56&amp;CHAR(10)&amp;$I$1&amp;I56&amp;CHAR(10)&amp;$J$1&amp;TEXT(J56,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -17383,41 +16924,32 @@
       <c r="D57" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>191</v>
+      <c r="E57" t="s">
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" t="s">
         <v>167</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K57" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 56
-  title: Petunjuk Umum Pengisian,Pencetakan,dan Pelaporan SPT Masa PPN 1111 Masa Januari 2011 s/d Mei 2013
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="5" t="e">
+        <f>B57&amp;$C$1&amp;C57&amp;CHAR(10)&amp;$D$1&amp;D57&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E57&amp;CHAR(10)&amp;$F$1&amp;F57&amp;CHAR(10)&amp;$G$1&amp;G57&amp;IF(H57=0,"",CHAR(10)&amp;$H$1)&amp;H57&amp;CHAR(10)&amp;$I$1&amp;I57&amp;CHAR(10)&amp;$J$1&amp;TEXT(J57,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -17430,41 +16962,32 @@
       <c r="D58" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>191</v>
+      <c r="E58" t="s">
+        <v>146</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
-      </c>
-      <c r="I58" t="s">
         <v>167</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K58" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 57
-  title: Jenis SPT Masa PPN sebelum 1 Januari 2011
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPN
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J58" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="5" t="e">
+        <f>B58&amp;$C$1&amp;C58&amp;CHAR(10)&amp;$D$1&amp;D58&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E58&amp;CHAR(10)&amp;$F$1&amp;F58&amp;CHAR(10)&amp;$G$1&amp;G58&amp;IF(H58=0,"",CHAR(10)&amp;$H$1)&amp;H58&amp;CHAR(10)&amp;$I$1&amp;I58&amp;CHAR(10)&amp;$J$1&amp;TEXT(J58,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -17477,41 +17000,32 @@
       <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>191</v>
+      <c r="E59" t="s">
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
-      </c>
-      <c r="I59" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K59" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 58
-  title: SPT Masa PPh 21 (Ketentuan Sebelum 1 Januari 2014)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPh Pasal 21
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J59" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="5" t="e">
+        <f>B59&amp;$C$1&amp;C59&amp;CHAR(10)&amp;$D$1&amp;D59&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E59&amp;CHAR(10)&amp;$F$1&amp;F59&amp;CHAR(10)&amp;$G$1&amp;G59&amp;IF(H59=0,"",CHAR(10)&amp;$H$1)&amp;H59&amp;CHAR(10)&amp;$I$1&amp;I59&amp;CHAR(10)&amp;$J$1&amp;TEXT(J59,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -17524,41 +17038,32 @@
       <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>191</v>
+      <c r="E60" t="s">
+        <v>146</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G60" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
-      </c>
-      <c r="I60" t="s">
         <v>168</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K60" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 59
-  title: SPT Masa PPh 21 (Ketentuan Sejak 1 Januari 2014)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPh Pasal 21
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J60" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="5" t="e">
+        <f>B60&amp;$C$1&amp;C60&amp;CHAR(10)&amp;$D$1&amp;D60&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E60&amp;CHAR(10)&amp;$F$1&amp;F60&amp;CHAR(10)&amp;$G$1&amp;G60&amp;IF(H60=0,"",CHAR(10)&amp;$H$1)&amp;H60&amp;CHAR(10)&amp;$I$1&amp;I60&amp;CHAR(10)&amp;$J$1&amp;TEXT(J60,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -17571,41 +17076,32 @@
       <c r="D61" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>191</v>
+      <c r="E61" t="s">
+        <v>146</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I61" t="s">
         <v>169</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K61" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 60
-  title: SPT Masa PPh Pasal 23/26
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: SPT
-  subtopik: SPT Masa PPh Pasal 23
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="5" t="e">
+        <f>B61&amp;$C$1&amp;C61&amp;CHAR(10)&amp;$D$1&amp;D61&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E61&amp;CHAR(10)&amp;$F$1&amp;F61&amp;CHAR(10)&amp;$G$1&amp;G61&amp;IF(H61=0,"",CHAR(10)&amp;$H$1)&amp;H61&amp;CHAR(10)&amp;$I$1&amp;I61&amp;CHAR(10)&amp;$J$1&amp;TEXT(J61,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -17618,37 +17114,29 @@
       <c r="D62" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>191</v>
+      <c r="E62" t="s">
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G62" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" t="s">
         <v>156</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K62" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 61
-  title: Pembayaran atau Penyetoran pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J62" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="5" t="e">
+        <f>B62&amp;$C$1&amp;C62&amp;CHAR(10)&amp;$D$1&amp;D62&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E62&amp;CHAR(10)&amp;$F$1&amp;F62&amp;CHAR(10)&amp;$G$1&amp;G62&amp;IF(H62=0,"",CHAR(10)&amp;$H$1)&amp;H62&amp;CHAR(10)&amp;$I$1&amp;I62&amp;CHAR(10)&amp;$J$1&amp;TEXT(J62,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -17661,37 +17149,29 @@
       <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>191</v>
+      <c r="E63" t="s">
+        <v>146</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" t="s">
         <v>156</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K63" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 62
-  title: Permohonan Pemindahbukuan (Pbk)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="5" t="e">
+        <f>B63&amp;$C$1&amp;C63&amp;CHAR(10)&amp;$D$1&amp;D63&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E63&amp;CHAR(10)&amp;$F$1&amp;F63&amp;CHAR(10)&amp;$G$1&amp;G63&amp;IF(H63=0,"",CHAR(10)&amp;$H$1)&amp;H63&amp;CHAR(10)&amp;$I$1&amp;I63&amp;CHAR(10)&amp;$J$1&amp;TEXT(J63,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -17704,37 +17184,29 @@
       <c r="D64" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>191</v>
+      <c r="E64" t="s">
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" t="s">
         <v>156</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K64" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 63
-  title: Tabel Kode Ketetapan per Jenis Pajak (Kode SKP, STP) lama
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J64" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="5" t="e">
+        <f>B64&amp;$C$1&amp;C64&amp;CHAR(10)&amp;$D$1&amp;D64&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E64&amp;CHAR(10)&amp;$F$1&amp;F64&amp;CHAR(10)&amp;$G$1&amp;G64&amp;IF(H64=0,"",CHAR(10)&amp;$H$1)&amp;H64&amp;CHAR(10)&amp;$I$1&amp;I64&amp;CHAR(10)&amp;$J$1&amp;TEXT(J64,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -17747,37 +17219,29 @@
       <c r="D65" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>191</v>
+      <c r="E65" t="s">
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" t="s">
         <v>156</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K65" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 64
-  title: Tata Cara Angsuran Dan Penundaan Pembayaran Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J65" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="5" t="e">
+        <f>B65&amp;$C$1&amp;C65&amp;CHAR(10)&amp;$D$1&amp;D65&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E65&amp;CHAR(10)&amp;$F$1&amp;F65&amp;CHAR(10)&amp;$G$1&amp;G65&amp;IF(H65=0,"",CHAR(10)&amp;$H$1)&amp;H65&amp;CHAR(10)&amp;$I$1&amp;I65&amp;CHAR(10)&amp;$J$1&amp;TEXT(J65,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -17790,37 +17254,29 @@
       <c r="D66" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>191</v>
+      <c r="E66" t="s">
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G66" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" t="s">
         <v>156</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>- id: 65
-  title: kode MAP SSBP untuk biaya pelaksanaan SP, SPMP, Pengumuman Lelang dan Pembatalan lelang
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J66" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5" t="e">
+        <f>B66&amp;$C$1&amp;C66&amp;CHAR(10)&amp;$D$1&amp;D66&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E66&amp;CHAR(10)&amp;$F$1&amp;F66&amp;CHAR(10)&amp;$G$1&amp;G66&amp;IF(H66=0,"",CHAR(10)&amp;$H$1)&amp;H66&amp;CHAR(10)&amp;$I$1&amp;I66&amp;CHAR(10)&amp;$J$1&amp;TEXT(J66,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -17833,37 +17289,29 @@
       <c r="D67" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>191</v>
+      <c r="E67" t="s">
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" t="s">
         <v>156</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K67" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L67" s="5" t="str">
-        <f t="shared" ref="L67:L130" si="1">B67&amp;$C$1&amp;C67&amp;CHAR(10)&amp;$D$1&amp;D67&amp;CHAR(10)&amp;$E$1&amp;E67&amp;CHAR(10)&amp;$F$1&amp;F67&amp;CHAR(10)&amp;$G$1&amp;G67&amp;CHAR(10)&amp;$H$1&amp;H67&amp;IF(I67=0,"",CHAR(10)&amp;$I$1)&amp;I67&amp;CHAR(10)&amp;$J$1&amp;J67&amp;CHAR(10)&amp;$K$1&amp;TEXT(K67,"dd mmmm yyyy")</f>
-        <v>- id: 66
-  title: Biaya Penagihan Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J67" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="5" t="e">
+        <f>B67&amp;$C$1&amp;C67&amp;CHAR(10)&amp;$D$1&amp;D67&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E67&amp;CHAR(10)&amp;$F$1&amp;F67&amp;CHAR(10)&amp;$G$1&amp;G67&amp;IF(H67=0,"",CHAR(10)&amp;$H$1)&amp;H67&amp;CHAR(10)&amp;$I$1&amp;I67&amp;CHAR(10)&amp;$J$1&amp;TEXT(J67,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -17876,37 +17324,29 @@
       <c r="D68" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>191</v>
+      <c r="E68" t="s">
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" t="s">
         <v>156</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K68" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 67
-  title: Jangka Waktu Pembayaran Pajak dan Jangka Waktu Pelunasan STP, SKPKB, SKPKBT, dll
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J68" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="5" t="e">
+        <f>B68&amp;$C$1&amp;C68&amp;CHAR(10)&amp;$D$1&amp;D68&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E68&amp;CHAR(10)&amp;$F$1&amp;F68&amp;CHAR(10)&amp;$G$1&amp;G68&amp;IF(H68=0,"",CHAR(10)&amp;$H$1)&amp;H68&amp;CHAR(10)&amp;$I$1&amp;I68&amp;CHAR(10)&amp;$J$1&amp;TEXT(J68,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -17919,37 +17359,29 @@
       <c r="D69" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>191</v>
+      <c r="E69" t="s">
+        <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" t="s">
         <v>156</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K69" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L69" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 68
-  title: Tabel Kode Ketetapan per Jenis Pajak (Kode SKP, STP)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J69" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="5" t="e">
+        <f>B69&amp;$C$1&amp;C69&amp;CHAR(10)&amp;$D$1&amp;D69&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E69&amp;CHAR(10)&amp;$F$1&amp;F69&amp;CHAR(10)&amp;$G$1&amp;G69&amp;IF(H69=0,"",CHAR(10)&amp;$H$1)&amp;H69&amp;CHAR(10)&amp;$I$1&amp;I69&amp;CHAR(10)&amp;$J$1&amp;TEXT(J69,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -17962,37 +17394,29 @@
       <c r="D70" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>191</v>
+      <c r="E70" t="s">
+        <v>146</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" t="s">
         <v>156</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K70" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L70" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 69
-  title: Tabel Kode MAP dan KJS Lengkap
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="5" t="e">
+        <f>B70&amp;$C$1&amp;C70&amp;CHAR(10)&amp;$D$1&amp;D70&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E70&amp;CHAR(10)&amp;$F$1&amp;F70&amp;CHAR(10)&amp;$G$1&amp;G70&amp;IF(H70=0,"",CHAR(10)&amp;$H$1)&amp;H70&amp;CHAR(10)&amp;$I$1&amp;I70&amp;CHAR(10)&amp;$J$1&amp;TEXT(J70,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -18005,37 +17429,29 @@
       <c r="D71" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>191</v>
+      <c r="E71" t="s">
+        <v>146</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" t="s">
         <v>156</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K71" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L71" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 70
-  title: penundaan pembayaran PPh pasal 29 tahun 2013 bagi WP industri tertentu
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J71" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="5" t="e">
+        <f>B71&amp;$C$1&amp;C71&amp;CHAR(10)&amp;$D$1&amp;D71&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E71&amp;CHAR(10)&amp;$F$1&amp;F71&amp;CHAR(10)&amp;$G$1&amp;G71&amp;IF(H71=0,"",CHAR(10)&amp;$H$1)&amp;H71&amp;CHAR(10)&amp;$I$1&amp;I71&amp;CHAR(10)&amp;$J$1&amp;TEXT(J71,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -18048,37 +17464,29 @@
       <c r="D72" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>191</v>
+      <c r="E72" t="s">
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
-      </c>
-      <c r="H72" t="s">
         <v>156</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K72" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L72" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 71
-  title: Sistem Pembayaran Pajak secara Elektronik (Billing System) (Ketentuan sejak 13 Oktober 2014)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J72" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="5" t="e">
+        <f>B72&amp;$C$1&amp;C72&amp;CHAR(10)&amp;$D$1&amp;D72&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E72&amp;CHAR(10)&amp;$F$1&amp;F72&amp;CHAR(10)&amp;$G$1&amp;G72&amp;IF(H72=0,"",CHAR(10)&amp;$H$1)&amp;H72&amp;CHAR(10)&amp;$I$1&amp;I72&amp;CHAR(10)&amp;$J$1&amp;TEXT(J72,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -18091,37 +17499,29 @@
       <c r="D73" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>191</v>
+      <c r="E73" t="s">
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G73" t="s">
-        <v>145</v>
-      </c>
-      <c r="H73" t="s">
         <v>156</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K73" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L73" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 72
-  title: Sistem Pembayaran Pajak secara Elektronik (Billing System) (Ketentuan sejak 4 April 2017)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembayaran atau Penyetoran
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J73" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="5" t="e">
+        <f>B73&amp;$C$1&amp;C73&amp;CHAR(10)&amp;$D$1&amp;D73&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E73&amp;CHAR(10)&amp;$F$1&amp;F73&amp;CHAR(10)&amp;$G$1&amp;G73&amp;IF(H73=0,"",CHAR(10)&amp;$H$1)&amp;H73&amp;CHAR(10)&amp;$I$1&amp;I73&amp;CHAR(10)&amp;$J$1&amp;TEXT(J73,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -18134,37 +17534,29 @@
       <c r="D74" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>191</v>
+      <c r="E74" t="s">
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G74" t="s">
-        <v>145</v>
-      </c>
-      <c r="H74" t="s">
         <v>157</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L74" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 73
-  title: Jadwal Waktu Penagihan Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Penagihan Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J74" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5" t="e">
+        <f>B74&amp;$C$1&amp;C74&amp;CHAR(10)&amp;$D$1&amp;D74&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E74&amp;CHAR(10)&amp;$F$1&amp;F74&amp;CHAR(10)&amp;$G$1&amp;G74&amp;IF(H74=0,"",CHAR(10)&amp;$H$1)&amp;H74&amp;CHAR(10)&amp;$I$1&amp;I74&amp;CHAR(10)&amp;$J$1&amp;TEXT(J74,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -18177,37 +17569,29 @@
       <c r="D75" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>191</v>
+      <c r="E75" t="s">
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G75" t="s">
-        <v>145</v>
-      </c>
-      <c r="H75" t="s">
         <v>157</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K75" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L75" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 74
-  title: Ketentuan terkait Penagihan pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Penagihan Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J75" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="5" t="e">
+        <f>B75&amp;$C$1&amp;C75&amp;CHAR(10)&amp;$D$1&amp;D75&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E75&amp;CHAR(10)&amp;$F$1&amp;F75&amp;CHAR(10)&amp;$G$1&amp;G75&amp;IF(H75=0,"",CHAR(10)&amp;$H$1)&amp;H75&amp;CHAR(10)&amp;$I$1&amp;I75&amp;CHAR(10)&amp;$J$1&amp;TEXT(J75,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -18220,37 +17604,29 @@
       <c r="D76" t="s">
         <v>187</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>191</v>
+      <c r="E76" t="s">
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G76" t="s">
-        <v>145</v>
-      </c>
-      <c r="H76" t="s">
         <v>158</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K76" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L76" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 75
-  title: Pasal 25 UU KUP , Keberatan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Keberatan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J76" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="5" t="e">
+        <f>B76&amp;$C$1&amp;C76&amp;CHAR(10)&amp;$D$1&amp;D76&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E76&amp;CHAR(10)&amp;$F$1&amp;F76&amp;CHAR(10)&amp;$G$1&amp;G76&amp;IF(H76=0,"",CHAR(10)&amp;$H$1)&amp;H76&amp;CHAR(10)&amp;$I$1&amp;I76&amp;CHAR(10)&amp;$J$1&amp;TEXT(J76,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -18263,37 +17639,29 @@
       <c r="D77" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>191</v>
+      <c r="E77" t="s">
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" t="s">
         <v>159</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K77" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L77" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 76
-  title: Pasal 16 KUP , Pembetulan STP, Surat Ketetapan/Keputusan Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="5" t="e">
+        <f>B77&amp;$C$1&amp;C77&amp;CHAR(10)&amp;$D$1&amp;D77&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E77&amp;CHAR(10)&amp;$F$1&amp;F77&amp;CHAR(10)&amp;$G$1&amp;G77&amp;IF(H77=0,"",CHAR(10)&amp;$H$1)&amp;H77&amp;CHAR(10)&amp;$I$1&amp;I77&amp;CHAR(10)&amp;$J$1&amp;TEXT(J77,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -18306,37 +17674,29 @@
       <c r="D78" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>191</v>
+      <c r="E78" t="s">
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G78" t="s">
-        <v>145</v>
-      </c>
-      <c r="H78" t="s">
         <v>159</v>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K78" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L78" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 77
-  title: Gugatan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="5" t="e">
+        <f>B78&amp;$C$1&amp;C78&amp;CHAR(10)&amp;$D$1&amp;D78&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E78&amp;CHAR(10)&amp;$F$1&amp;F78&amp;CHAR(10)&amp;$G$1&amp;G78&amp;IF(H78=0,"",CHAR(10)&amp;$H$1)&amp;H78&amp;CHAR(10)&amp;$I$1&amp;I78&amp;CHAR(10)&amp;$J$1&amp;TEXT(J78,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -18349,37 +17709,29 @@
       <c r="D79" t="s">
         <v>189</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>191</v>
+      <c r="E79" t="s">
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G79" t="s">
-        <v>145</v>
-      </c>
-      <c r="H79" t="s">
         <v>159</v>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K79" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L79" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 78
-  title: Pasal 27 UU KUP , Banding
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="5" t="e">
+        <f>B79&amp;$C$1&amp;C79&amp;CHAR(10)&amp;$D$1&amp;D79&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E79&amp;CHAR(10)&amp;$F$1&amp;F79&amp;CHAR(10)&amp;$G$1&amp;G79&amp;IF(H79=0,"",CHAR(10)&amp;$H$1)&amp;H79&amp;CHAR(10)&amp;$I$1&amp;I79&amp;CHAR(10)&amp;$J$1&amp;TEXT(J79,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -18392,37 +17744,29 @@
       <c r="D80" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>191</v>
+      <c r="E80" t="s">
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" t="s">
         <v>159</v>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K80" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L80" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 79
-  title: Peninjauan Kembali
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J80" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="5" t="e">
+        <f>B80&amp;$C$1&amp;C80&amp;CHAR(10)&amp;$D$1&amp;D80&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E80&amp;CHAR(10)&amp;$F$1&amp;F80&amp;CHAR(10)&amp;$G$1&amp;G80&amp;IF(H80=0,"",CHAR(10)&amp;$H$1)&amp;H80&amp;CHAR(10)&amp;$I$1&amp;I80&amp;CHAR(10)&amp;$J$1&amp;TEXT(J80,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -18435,41 +17779,32 @@
       <c r="D81" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>191</v>
+      <c r="E81" t="s">
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G81" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H81" t="s">
-        <v>159</v>
-      </c>
-      <c r="I81" t="s">
         <v>170</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K81" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L81" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 80
-  title: Pengurangan/penghapusan sanksi, pengurangan/pembatalan STP/SKP,pembatalan hasil pemeriksaan (Ketentuan Sebelum 1 Maret 2013)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J81" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="5" t="e">
+        <f>B81&amp;$C$1&amp;C81&amp;CHAR(10)&amp;$D$1&amp;D81&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E81&amp;CHAR(10)&amp;$F$1&amp;F81&amp;CHAR(10)&amp;$G$1&amp;G81&amp;IF(H81=0,"",CHAR(10)&amp;$H$1)&amp;H81&amp;CHAR(10)&amp;$I$1&amp;I81&amp;CHAR(10)&amp;$J$1&amp;TEXT(J81,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -18482,41 +17817,32 @@
       <c r="D82" t="s">
         <v>75</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>191</v>
+      <c r="E82" t="s">
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G82" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H82" t="s">
-        <v>159</v>
-      </c>
-      <c r="I82" t="s">
         <v>170</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K82" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L82" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 81
-  title: Ketentuan terkait Pasal 36 UU KUP Sejak 1 Maret 2013
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J82" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="5" t="e">
+        <f>B82&amp;$C$1&amp;C82&amp;CHAR(10)&amp;$D$1&amp;D82&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E82&amp;CHAR(10)&amp;$F$1&amp;F82&amp;CHAR(10)&amp;$G$1&amp;G82&amp;IF(H82=0,"",CHAR(10)&amp;$H$1)&amp;H82&amp;CHAR(10)&amp;$I$1&amp;I82&amp;CHAR(10)&amp;$J$1&amp;TEXT(J82,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -18529,41 +17855,32 @@
       <c r="D83" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>191</v>
+      <c r="E83" t="s">
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G83" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H83" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" t="s">
         <v>170</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K83" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L83" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 82
-  title: Pengurangan Atau Penghapusan Sanksi Administrasi Pada SKP dan STP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J83" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="5" t="e">
+        <f>B83&amp;$C$1&amp;C83&amp;CHAR(10)&amp;$D$1&amp;D83&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E83&amp;CHAR(10)&amp;$F$1&amp;F83&amp;CHAR(10)&amp;$G$1&amp;G83&amp;IF(H83=0,"",CHAR(10)&amp;$H$1)&amp;H83&amp;CHAR(10)&amp;$I$1&amp;I83&amp;CHAR(10)&amp;$J$1&amp;TEXT(J83,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -18576,41 +17893,32 @@
       <c r="D84" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>191</v>
+      <c r="E84" t="s">
+        <v>146</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G84" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H84" t="s">
-        <v>159</v>
-      </c>
-      <c r="I84" t="s">
         <v>170</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K84" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L84" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 83
-  title: Pengurangan atau Pembatalan SKP yang Tidak Benar
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J84" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="5" t="e">
+        <f>B84&amp;$C$1&amp;C84&amp;CHAR(10)&amp;$D$1&amp;D84&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E84&amp;CHAR(10)&amp;$F$1&amp;F84&amp;CHAR(10)&amp;$G$1&amp;G84&amp;IF(H84=0,"",CHAR(10)&amp;$H$1)&amp;H84&amp;CHAR(10)&amp;$I$1&amp;I84&amp;CHAR(10)&amp;$J$1&amp;TEXT(J84,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -18623,41 +17931,32 @@
       <c r="D85" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>191</v>
+      <c r="E85" t="s">
+        <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G85" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H85" t="s">
-        <v>159</v>
-      </c>
-      <c r="I85" t="s">
         <v>170</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K85" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L85" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 84
-  title: Pengurangan atau Pembatalan STP yang Tidak Benar
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J85" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="5" t="e">
+        <f>B85&amp;$C$1&amp;C85&amp;CHAR(10)&amp;$D$1&amp;D85&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E85&amp;CHAR(10)&amp;$F$1&amp;F85&amp;CHAR(10)&amp;$G$1&amp;G85&amp;IF(H85=0,"",CHAR(10)&amp;$H$1)&amp;H85&amp;CHAR(10)&amp;$I$1&amp;I85&amp;CHAR(10)&amp;$J$1&amp;TEXT(J85,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -18670,41 +17969,32 @@
       <c r="D86" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>191</v>
+      <c r="E86" t="s">
+        <v>146</v>
       </c>
       <c r="F86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G86" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H86" t="s">
-        <v>159</v>
-      </c>
-      <c r="I86" t="s">
         <v>170</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K86" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L86" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 85
-  title: permohonan pembatalan SKP hasil pemeriksaan atau verifikasi
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J86" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="5" t="e">
+        <f>B86&amp;$C$1&amp;C86&amp;CHAR(10)&amp;$D$1&amp;D86&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E86&amp;CHAR(10)&amp;$F$1&amp;F86&amp;CHAR(10)&amp;$G$1&amp;G86&amp;IF(H86=0,"",CHAR(10)&amp;$H$1)&amp;H86&amp;CHAR(10)&amp;$I$1&amp;I86&amp;CHAR(10)&amp;$J$1&amp;TEXT(J86,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -18717,41 +18007,32 @@
       <c r="D87" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>191</v>
+      <c r="E87" t="s">
+        <v>146</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G87" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H87" t="s">
-        <v>159</v>
-      </c>
-      <c r="I87" t="s">
         <v>170</v>
       </c>
-      <c r="J87" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K87" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L87" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 86
-  title: Penghapusan Sanksi Administrasi Bunga Pasal 19 ayat (1) UU KUP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J87" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="5" t="e">
+        <f>B87&amp;$C$1&amp;C87&amp;CHAR(10)&amp;$D$1&amp;D87&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E87&amp;CHAR(10)&amp;$F$1&amp;F87&amp;CHAR(10)&amp;$G$1&amp;G87&amp;IF(H87=0,"",CHAR(10)&amp;$H$1)&amp;H87&amp;CHAR(10)&amp;$I$1&amp;I87&amp;CHAR(10)&amp;$J$1&amp;TEXT(J87,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -18764,41 +18045,32 @@
       <c r="D88" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>191</v>
+      <c r="E88" t="s">
+        <v>146</v>
       </c>
       <c r="F88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G88" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H88" t="s">
-        <v>159</v>
-      </c>
-      <c r="I88" t="s">
         <v>170</v>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K88" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L88" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 87
-  title: Pengurangan Atau Penghapusan Sanksi Administrasi Atas SPT
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J88" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="5" t="e">
+        <f>B88&amp;$C$1&amp;C88&amp;CHAR(10)&amp;$D$1&amp;D88&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E88&amp;CHAR(10)&amp;$F$1&amp;F88&amp;CHAR(10)&amp;$G$1&amp;G88&amp;IF(H88=0,"",CHAR(10)&amp;$H$1)&amp;H88&amp;CHAR(10)&amp;$I$1&amp;I88&amp;CHAR(10)&amp;$J$1&amp;TEXT(J88,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -18811,41 +18083,32 @@
       <c r="D89" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>191</v>
+      <c r="E89" t="s">
+        <v>146</v>
       </c>
       <c r="F89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H89" t="s">
-        <v>159</v>
-      </c>
-      <c r="I89" t="s">
         <v>170</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L89" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 88
-  title: Pengurangan Sanksi Administrasi dalam SKP, SKP PBB, dan atau STP yang diterbitkan pada tahun 2015
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Banding, Gugatan, dan Peninjauan Kembali
-  subtopik: Pasal 36 UU KUP
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J89" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="5" t="e">
+        <f>B89&amp;$C$1&amp;C89&amp;CHAR(10)&amp;$D$1&amp;D89&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E89&amp;CHAR(10)&amp;$F$1&amp;F89&amp;CHAR(10)&amp;$G$1&amp;G89&amp;IF(H89=0,"",CHAR(10)&amp;$H$1)&amp;H89&amp;CHAR(10)&amp;$I$1&amp;I89&amp;CHAR(10)&amp;$J$1&amp;TEXT(J89,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -18858,37 +18121,29 @@
       <c r="D90" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>191</v>
+      <c r="E90" t="s">
+        <v>146</v>
       </c>
       <c r="F90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
-        <v>145</v>
-      </c>
-      <c r="H90" t="s">
         <v>85</v>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K90" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L90" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 89
-  title: Pembukuan dengan Mata Uang Asing
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembukuan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J90" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="5" t="e">
+        <f>B90&amp;$C$1&amp;C90&amp;CHAR(10)&amp;$D$1&amp;D90&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E90&amp;CHAR(10)&amp;$F$1&amp;F90&amp;CHAR(10)&amp;$G$1&amp;G90&amp;IF(H90=0,"",CHAR(10)&amp;$H$1)&amp;H90&amp;CHAR(10)&amp;$I$1&amp;I90&amp;CHAR(10)&amp;$J$1&amp;TEXT(J90,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -18901,37 +18156,29 @@
       <c r="D91" t="s">
         <v>84</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>191</v>
+      <c r="E91" t="s">
+        <v>146</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G91" t="s">
-        <v>145</v>
-      </c>
-      <c r="H91" t="s">
         <v>85</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K91" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L91" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 90
-  title: Perubahan Metode Pembukuan dan atau Tahun Buku
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembukuan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J91" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="5" t="e">
+        <f>B91&amp;$C$1&amp;C91&amp;CHAR(10)&amp;$D$1&amp;D91&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E91&amp;CHAR(10)&amp;$F$1&amp;F91&amp;CHAR(10)&amp;$G$1&amp;G91&amp;IF(H91=0,"",CHAR(10)&amp;$H$1)&amp;H91&amp;CHAR(10)&amp;$I$1&amp;I91&amp;CHAR(10)&amp;$J$1&amp;TEXT(J91,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -18944,37 +18191,29 @@
       <c r="D92" t="s">
         <v>85</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>191</v>
+      <c r="E92" t="s">
+        <v>146</v>
       </c>
       <c r="F92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G92" t="s">
-        <v>145</v>
-      </c>
-      <c r="H92" t="s">
         <v>85</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K92" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L92" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 91
-  title: Pembukuan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembukuan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J92" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="5" t="e">
+        <f>B92&amp;$C$1&amp;C92&amp;CHAR(10)&amp;$D$1&amp;D92&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E92&amp;CHAR(10)&amp;$F$1&amp;F92&amp;CHAR(10)&amp;$G$1&amp;G92&amp;IF(H92=0,"",CHAR(10)&amp;$H$1)&amp;H92&amp;CHAR(10)&amp;$I$1&amp;I92&amp;CHAR(10)&amp;$J$1&amp;TEXT(J92,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -18987,37 +18226,29 @@
       <c r="D93" t="s">
         <v>86</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>191</v>
+      <c r="E93" t="s">
+        <v>146</v>
       </c>
       <c r="F93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G93" t="s">
-        <v>145</v>
-      </c>
-      <c r="H93" t="s">
         <v>85</v>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K93" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L93" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 92
-  title: Pencatatan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembukuan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J93" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="5" t="e">
+        <f>B93&amp;$C$1&amp;C93&amp;CHAR(10)&amp;$D$1&amp;D93&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E93&amp;CHAR(10)&amp;$F$1&amp;F93&amp;CHAR(10)&amp;$G$1&amp;G93&amp;IF(H93=0,"",CHAR(10)&amp;$H$1)&amp;H93&amp;CHAR(10)&amp;$I$1&amp;I93&amp;CHAR(10)&amp;$J$1&amp;TEXT(J93,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -19030,37 +18261,29 @@
       <c r="D94" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>191</v>
+      <c r="E94" t="s">
+        <v>146</v>
       </c>
       <c r="F94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
-      </c>
-      <c r="H94" t="s">
         <v>85</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K94" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L94" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 93
-  title: Ketentuan Terkait Konversi Ke Satuan Mata Uang Dollar Dan Ketentuan Lain Setelah WP Memperoleh Izin Pembukuan Dollar
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pembukuan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J94" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="5" t="e">
+        <f>B94&amp;$C$1&amp;C94&amp;CHAR(10)&amp;$D$1&amp;D94&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E94&amp;CHAR(10)&amp;$F$1&amp;F94&amp;CHAR(10)&amp;$G$1&amp;G94&amp;IF(H94=0,"",CHAR(10)&amp;$H$1)&amp;H94&amp;CHAR(10)&amp;$I$1&amp;I94&amp;CHAR(10)&amp;$J$1&amp;TEXT(J94,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -19073,37 +18296,29 @@
       <c r="D95" t="s">
         <v>88</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>191</v>
+      <c r="E95" t="s">
+        <v>146</v>
       </c>
       <c r="F95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G95" t="s">
-        <v>145</v>
-      </c>
-      <c r="H95" t="s">
         <v>160</v>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K95" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L95" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 94
-  title: Tata Cara Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="5" t="e">
+        <f>B95&amp;$C$1&amp;C95&amp;CHAR(10)&amp;$D$1&amp;D95&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E95&amp;CHAR(10)&amp;$F$1&amp;F95&amp;CHAR(10)&amp;$G$1&amp;G95&amp;IF(H95=0,"",CHAR(10)&amp;$H$1)&amp;H95&amp;CHAR(10)&amp;$I$1&amp;I95&amp;CHAR(10)&amp;$J$1&amp;TEXT(J95,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -19116,41 +18331,32 @@
       <c r="D96" t="s">
         <v>89</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>191</v>
+      <c r="E96" t="s">
+        <v>146</v>
       </c>
       <c r="F96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G96" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H96" t="s">
-        <v>160</v>
-      </c>
-      <c r="I96" t="s">
         <v>171</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K96" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L96" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 95
-  title: Ruang Lingkup, Kriteria, dan Jenis Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J96" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="5" t="e">
+        <f>B96&amp;$C$1&amp;C96&amp;CHAR(10)&amp;$D$1&amp;D96&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E96&amp;CHAR(10)&amp;$F$1&amp;F96&amp;CHAR(10)&amp;$G$1&amp;G96&amp;IF(H96=0,"",CHAR(10)&amp;$H$1)&amp;H96&amp;CHAR(10)&amp;$I$1&amp;I96&amp;CHAR(10)&amp;$J$1&amp;TEXT(J96,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -19163,41 +18369,32 @@
       <c r="D97" t="s">
         <v>90</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>191</v>
+      <c r="E97" t="s">
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H97" t="s">
-        <v>160</v>
-      </c>
-      <c r="I97" t="s">
         <v>171</v>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K97" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L97" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 96
-  title: Standar Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J97" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="5" t="e">
+        <f>B97&amp;$C$1&amp;C97&amp;CHAR(10)&amp;$D$1&amp;D97&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E97&amp;CHAR(10)&amp;$F$1&amp;F97&amp;CHAR(10)&amp;$G$1&amp;G97&amp;IF(H97=0,"",CHAR(10)&amp;$H$1)&amp;H97&amp;CHAR(10)&amp;$I$1&amp;I97&amp;CHAR(10)&amp;$J$1&amp;TEXT(J97,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -19210,41 +18407,32 @@
       <c r="D98" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>191</v>
+      <c r="E98" t="s">
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H98" t="s">
-        <v>160</v>
-      </c>
-      <c r="I98" t="s">
         <v>171</v>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K98" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L98" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 97
-  title: Kewajiban dan Kewenangan Pemeriksa Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J98" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="5" t="e">
+        <f>B98&amp;$C$1&amp;C98&amp;CHAR(10)&amp;$D$1&amp;D98&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E98&amp;CHAR(10)&amp;$F$1&amp;F98&amp;CHAR(10)&amp;$G$1&amp;G98&amp;IF(H98=0,"",CHAR(10)&amp;$H$1)&amp;H98&amp;CHAR(10)&amp;$I$1&amp;I98&amp;CHAR(10)&amp;$J$1&amp;TEXT(J98,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -19257,41 +18445,32 @@
       <c r="D99" t="s">
         <v>92</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>191</v>
+      <c r="E99" t="s">
+        <v>146</v>
       </c>
       <c r="F99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G99" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H99" t="s">
-        <v>160</v>
-      </c>
-      <c r="I99" t="s">
         <v>171</v>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K99" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L99" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 98
-  title: Hak dan Kewajiban Wajib Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J99" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="5" t="e">
+        <f>B99&amp;$C$1&amp;C99&amp;CHAR(10)&amp;$D$1&amp;D99&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E99&amp;CHAR(10)&amp;$F$1&amp;F99&amp;CHAR(10)&amp;$G$1&amp;G99&amp;IF(H99=0,"",CHAR(10)&amp;$H$1)&amp;H99&amp;CHAR(10)&amp;$I$1&amp;I99&amp;CHAR(10)&amp;$J$1&amp;TEXT(J99,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -19304,41 +18483,32 @@
       <c r="D100" t="s">
         <v>93</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>191</v>
+      <c r="E100" t="s">
+        <v>146</v>
       </c>
       <c r="F100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G100" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H100" t="s">
-        <v>160</v>
-      </c>
-      <c r="I100" t="s">
         <v>171</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K100" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L100" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 99
-  title: Jangka Waktu Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J100" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="5" t="e">
+        <f>B100&amp;$C$1&amp;C100&amp;CHAR(10)&amp;$D$1&amp;D100&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E100&amp;CHAR(10)&amp;$F$1&amp;F100&amp;CHAR(10)&amp;$G$1&amp;G100&amp;IF(H100=0,"",CHAR(10)&amp;$H$1)&amp;H100&amp;CHAR(10)&amp;$I$1&amp;I100&amp;CHAR(10)&amp;$J$1&amp;TEXT(J100,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -19351,41 +18521,32 @@
       <c r="D101" t="s">
         <v>94</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>191</v>
+      <c r="E101" t="s">
+        <v>146</v>
       </c>
       <c r="F101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G101" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H101" t="s">
-        <v>160</v>
-      </c>
-      <c r="I101" t="s">
         <v>171</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K101" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L101" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 100
-  title: Penyelesaian Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J101" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="5" t="e">
+        <f>B101&amp;$C$1&amp;C101&amp;CHAR(10)&amp;$D$1&amp;D101&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E101&amp;CHAR(10)&amp;$F$1&amp;F101&amp;CHAR(10)&amp;$G$1&amp;G101&amp;IF(H101=0,"",CHAR(10)&amp;$H$1)&amp;H101&amp;CHAR(10)&amp;$I$1&amp;I101&amp;CHAR(10)&amp;$J$1&amp;TEXT(J101,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -19398,41 +18559,32 @@
       <c r="D102" t="s">
         <v>95</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>191</v>
+      <c r="E102" t="s">
+        <v>146</v>
       </c>
       <c r="F102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G102" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H102" t="s">
-        <v>160</v>
-      </c>
-      <c r="I102" t="s">
         <v>171</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K102" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L102" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 101
-  title: Tim Pemeriksa Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J102" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="5" t="e">
+        <f>B102&amp;$C$1&amp;C102&amp;CHAR(10)&amp;$D$1&amp;D102&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E102&amp;CHAR(10)&amp;$F$1&amp;F102&amp;CHAR(10)&amp;$G$1&amp;G102&amp;IF(H102=0,"",CHAR(10)&amp;$H$1)&amp;H102&amp;CHAR(10)&amp;$I$1&amp;I102&amp;CHAR(10)&amp;$J$1&amp;TEXT(J102,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -19445,41 +18597,32 @@
       <c r="D103" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>191</v>
+      <c r="E103" t="s">
+        <v>146</v>
       </c>
       <c r="F103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G103" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H103" t="s">
-        <v>160</v>
-      </c>
-      <c r="I103" t="s">
         <v>171</v>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K103" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L103" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 102
-  title: Pemberitahuan, Panggilan Pemeriksaan, dan Pertemuan dengan WP
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J103" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="5" t="e">
+        <f>B103&amp;$C$1&amp;C103&amp;CHAR(10)&amp;$D$1&amp;D103&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E103&amp;CHAR(10)&amp;$F$1&amp;F103&amp;CHAR(10)&amp;$G$1&amp;G103&amp;IF(H103=0,"",CHAR(10)&amp;$H$1)&amp;H103&amp;CHAR(10)&amp;$I$1&amp;I103&amp;CHAR(10)&amp;$J$1&amp;TEXT(J103,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -19492,41 +18635,32 @@
       <c r="D104" t="s">
         <v>97</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>191</v>
+      <c r="E104" t="s">
+        <v>146</v>
       </c>
       <c r="F104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G104" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H104" t="s">
-        <v>160</v>
-      </c>
-      <c r="I104" t="s">
         <v>171</v>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K104" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L104" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 103
-  title: Peminjaman Dokumen
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J104" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="5" t="e">
+        <f>B104&amp;$C$1&amp;C104&amp;CHAR(10)&amp;$D$1&amp;D104&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E104&amp;CHAR(10)&amp;$F$1&amp;F104&amp;CHAR(10)&amp;$G$1&amp;G104&amp;IF(H104=0,"",CHAR(10)&amp;$H$1)&amp;H104&amp;CHAR(10)&amp;$I$1&amp;I104&amp;CHAR(10)&amp;$J$1&amp;TEXT(J104,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -19539,41 +18673,32 @@
       <c r="D105" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>191</v>
+      <c r="E105" t="s">
+        <v>146</v>
       </c>
       <c r="F105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G105" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H105" t="s">
-        <v>160</v>
-      </c>
-      <c r="I105" t="s">
         <v>171</v>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K105" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L105" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 104
-  title: Penyegelan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="5" t="e">
+        <f>B105&amp;$C$1&amp;C105&amp;CHAR(10)&amp;$D$1&amp;D105&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E105&amp;CHAR(10)&amp;$F$1&amp;F105&amp;CHAR(10)&amp;$G$1&amp;G105&amp;IF(H105=0,"",CHAR(10)&amp;$H$1)&amp;H105&amp;CHAR(10)&amp;$I$1&amp;I105&amp;CHAR(10)&amp;$J$1&amp;TEXT(J105,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -19586,41 +18711,32 @@
       <c r="D106" t="s">
         <v>99</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>191</v>
+      <c r="E106" t="s">
+        <v>146</v>
       </c>
       <c r="F106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G106" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H106" t="s">
-        <v>160</v>
-      </c>
-      <c r="I106" t="s">
         <v>171</v>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K106" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L106" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 105
-  title: Penolakan Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J106" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="5" t="e">
+        <f>B106&amp;$C$1&amp;C106&amp;CHAR(10)&amp;$D$1&amp;D106&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E106&amp;CHAR(10)&amp;$F$1&amp;F106&amp;CHAR(10)&amp;$G$1&amp;G106&amp;IF(H106=0,"",CHAR(10)&amp;$H$1)&amp;H106&amp;CHAR(10)&amp;$I$1&amp;I106&amp;CHAR(10)&amp;$J$1&amp;TEXT(J106,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -19633,41 +18749,32 @@
       <c r="D107" t="s">
         <v>100</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>191</v>
+      <c r="E107" t="s">
+        <v>146</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H107" t="s">
-        <v>160</v>
-      </c>
-      <c r="I107" t="s">
         <v>171</v>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K107" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L107" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 106
-  title: Penjelasan WP dan Permintaan Keterangan Kepada Pihak Ketiga
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="5" t="e">
+        <f>B107&amp;$C$1&amp;C107&amp;CHAR(10)&amp;$D$1&amp;D107&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E107&amp;CHAR(10)&amp;$F$1&amp;F107&amp;CHAR(10)&amp;$G$1&amp;G107&amp;IF(H107=0,"",CHAR(10)&amp;$H$1)&amp;H107&amp;CHAR(10)&amp;$I$1&amp;I107&amp;CHAR(10)&amp;$J$1&amp;TEXT(J107,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -19680,41 +18787,32 @@
       <c r="D108" t="s">
         <v>101</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>191</v>
+      <c r="E108" t="s">
+        <v>146</v>
       </c>
       <c r="F108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H108" t="s">
-        <v>160</v>
-      </c>
-      <c r="I108" t="s">
         <v>171</v>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K108" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L108" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 107
-  title: Pemberitahuan Hasil Pemeriksaan dan Pembahasan Akhir Hasil Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J108" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="5" t="e">
+        <f>B108&amp;$C$1&amp;C108&amp;CHAR(10)&amp;$D$1&amp;D108&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E108&amp;CHAR(10)&amp;$F$1&amp;F108&amp;CHAR(10)&amp;$G$1&amp;G108&amp;IF(H108=0,"",CHAR(10)&amp;$H$1)&amp;H108&amp;CHAR(10)&amp;$I$1&amp;I108&amp;CHAR(10)&amp;$J$1&amp;TEXT(J108,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -19727,41 +18825,32 @@
       <c r="D109" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>191</v>
+      <c r="E109" t="s">
+        <v>146</v>
       </c>
       <c r="F109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G109" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H109" t="s">
-        <v>160</v>
-      </c>
-      <c r="I109" t="s">
         <v>171</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K109" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L109" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 108
-  title: Pelaporan Hasil Pemeriksaan dan Pengembalian Dokumen
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J109" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="5" t="e">
+        <f>B109&amp;$C$1&amp;C109&amp;CHAR(10)&amp;$D$1&amp;D109&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E109&amp;CHAR(10)&amp;$F$1&amp;F109&amp;CHAR(10)&amp;$G$1&amp;G109&amp;IF(H109=0,"",CHAR(10)&amp;$H$1)&amp;H109&amp;CHAR(10)&amp;$I$1&amp;I109&amp;CHAR(10)&amp;$J$1&amp;TEXT(J109,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -19774,41 +18863,32 @@
       <c r="D110" t="s">
         <v>103</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>191</v>
+      <c r="E110" t="s">
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H110" t="s">
-        <v>160</v>
-      </c>
-      <c r="I110" t="s">
         <v>171</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K110" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L110" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 109
-  title: Pembatalan Hasil Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J110" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="5" t="e">
+        <f>B110&amp;$C$1&amp;C110&amp;CHAR(10)&amp;$D$1&amp;D110&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E110&amp;CHAR(10)&amp;$F$1&amp;F110&amp;CHAR(10)&amp;$G$1&amp;G110&amp;IF(H110=0,"",CHAR(10)&amp;$H$1)&amp;H110&amp;CHAR(10)&amp;$I$1&amp;I110&amp;CHAR(10)&amp;$J$1&amp;TEXT(J110,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -19821,41 +18901,32 @@
       <c r="D111" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>191</v>
+      <c r="E111" t="s">
+        <v>146</v>
       </c>
       <c r="F111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H111" t="s">
-        <v>160</v>
-      </c>
-      <c r="I111" t="s">
         <v>171</v>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K111" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L111" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 110
-  title: Pengungkapan Ketidakbenaran Pengisian SPT Selama Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J111" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="5" t="e">
+        <f>B111&amp;$C$1&amp;C111&amp;CHAR(10)&amp;$D$1&amp;D111&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E111&amp;CHAR(10)&amp;$F$1&amp;F111&amp;CHAR(10)&amp;$G$1&amp;G111&amp;IF(H111=0,"",CHAR(10)&amp;$H$1)&amp;H111&amp;CHAR(10)&amp;$I$1&amp;I111&amp;CHAR(10)&amp;$J$1&amp;TEXT(J111,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -19868,41 +18939,32 @@
       <c r="D112" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>191</v>
+      <c r="E112" t="s">
+        <v>146</v>
       </c>
       <c r="F112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H112" t="s">
-        <v>160</v>
-      </c>
-      <c r="I112" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K112" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L112" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 111
-  title: Usulan Pemeriksaan Bukti Permulaan dan Penangguhan Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J112" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="5" t="e">
+        <f>B112&amp;$C$1&amp;C112&amp;CHAR(10)&amp;$D$1&amp;D112&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E112&amp;CHAR(10)&amp;$F$1&amp;F112&amp;CHAR(10)&amp;$G$1&amp;G112&amp;IF(H112=0,"",CHAR(10)&amp;$H$1)&amp;H112&amp;CHAR(10)&amp;$I$1&amp;I112&amp;CHAR(10)&amp;$J$1&amp;TEXT(J112,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -19915,41 +18977,32 @@
       <c r="D113" t="s">
         <v>106</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>191</v>
+      <c r="E113" t="s">
+        <v>146</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H113" t="s">
-        <v>160</v>
-      </c>
-      <c r="I113" t="s">
         <v>171</v>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K113" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L113" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 112
-  title: Pemeriksaan Ulang
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J113" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="5" t="e">
+        <f>B113&amp;$C$1&amp;C113&amp;CHAR(10)&amp;$D$1&amp;D113&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E113&amp;CHAR(10)&amp;$F$1&amp;F113&amp;CHAR(10)&amp;$G$1&amp;G113&amp;IF(H113=0,"",CHAR(10)&amp;$H$1)&amp;H113&amp;CHAR(10)&amp;$I$1&amp;I113&amp;CHAR(10)&amp;$J$1&amp;TEXT(J113,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -19962,41 +19015,32 @@
       <c r="D114" t="s">
         <v>89</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>191</v>
+      <c r="E114" t="s">
+        <v>146</v>
       </c>
       <c r="F114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H114" t="s">
-        <v>160</v>
-      </c>
-      <c r="I114" t="s">
         <v>172</v>
       </c>
-      <c r="J114" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K114" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L114" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 113
-  title: Ruang Lingkup, Kriteria, dan Jenis Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J114" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="5" t="e">
+        <f>B114&amp;$C$1&amp;C114&amp;CHAR(10)&amp;$D$1&amp;D114&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E114&amp;CHAR(10)&amp;$F$1&amp;F114&amp;CHAR(10)&amp;$G$1&amp;G114&amp;IF(H114=0,"",CHAR(10)&amp;$H$1)&amp;H114&amp;CHAR(10)&amp;$I$1&amp;I114&amp;CHAR(10)&amp;$J$1&amp;TEXT(J114,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -20009,41 +19053,32 @@
       <c r="D115" t="s">
         <v>90</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>191</v>
+      <c r="E115" t="s">
+        <v>146</v>
       </c>
       <c r="F115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G115" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H115" t="s">
-        <v>160</v>
-      </c>
-      <c r="I115" t="s">
         <v>172</v>
       </c>
-      <c r="J115" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K115" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L115" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 114
-  title: Standar Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J115" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="5" t="e">
+        <f>B115&amp;$C$1&amp;C115&amp;CHAR(10)&amp;$D$1&amp;D115&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E115&amp;CHAR(10)&amp;$F$1&amp;F115&amp;CHAR(10)&amp;$G$1&amp;G115&amp;IF(H115=0,"",CHAR(10)&amp;$H$1)&amp;H115&amp;CHAR(10)&amp;$I$1&amp;I115&amp;CHAR(10)&amp;$J$1&amp;TEXT(J115,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -20056,41 +19091,32 @@
       <c r="D116" t="s">
         <v>91</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>191</v>
+      <c r="E116" t="s">
+        <v>146</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G116" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H116" t="s">
-        <v>160</v>
-      </c>
-      <c r="I116" t="s">
         <v>172</v>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K116" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L116" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 115
-  title: Kewajiban dan Kewenangan Pemeriksa Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J116" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="5" t="e">
+        <f>B116&amp;$C$1&amp;C116&amp;CHAR(10)&amp;$D$1&amp;D116&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E116&amp;CHAR(10)&amp;$F$1&amp;F116&amp;CHAR(10)&amp;$G$1&amp;G116&amp;IF(H116=0,"",CHAR(10)&amp;$H$1)&amp;H116&amp;CHAR(10)&amp;$I$1&amp;I116&amp;CHAR(10)&amp;$J$1&amp;TEXT(J116,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -20103,41 +19129,32 @@
       <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>191</v>
+      <c r="E117" t="s">
+        <v>146</v>
       </c>
       <c r="F117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G117" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H117" t="s">
-        <v>160</v>
-      </c>
-      <c r="I117" t="s">
         <v>172</v>
       </c>
-      <c r="J117" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K117" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L117" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 116
-  title: Hak dan Kewajiban Wajib Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J117" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="5" t="e">
+        <f>B117&amp;$C$1&amp;C117&amp;CHAR(10)&amp;$D$1&amp;D117&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E117&amp;CHAR(10)&amp;$F$1&amp;F117&amp;CHAR(10)&amp;$G$1&amp;G117&amp;IF(H117=0,"",CHAR(10)&amp;$H$1)&amp;H117&amp;CHAR(10)&amp;$I$1&amp;I117&amp;CHAR(10)&amp;$J$1&amp;TEXT(J117,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -20150,41 +19167,32 @@
       <c r="D118" t="s">
         <v>93</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>191</v>
+      <c r="E118" t="s">
+        <v>146</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G118" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H118" t="s">
-        <v>160</v>
-      </c>
-      <c r="I118" t="s">
         <v>172</v>
       </c>
-      <c r="J118" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K118" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L118" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 117
-  title: Jangka Waktu Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J118" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="5" t="e">
+        <f>B118&amp;$C$1&amp;C118&amp;CHAR(10)&amp;$D$1&amp;D118&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E118&amp;CHAR(10)&amp;$F$1&amp;F118&amp;CHAR(10)&amp;$G$1&amp;G118&amp;IF(H118=0,"",CHAR(10)&amp;$H$1)&amp;H118&amp;CHAR(10)&amp;$I$1&amp;I118&amp;CHAR(10)&amp;$J$1&amp;TEXT(J118,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -20197,41 +19205,32 @@
       <c r="D119" t="s">
         <v>107</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>191</v>
+      <c r="E119" t="s">
+        <v>146</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H119" t="s">
-        <v>160</v>
-      </c>
-      <c r="I119" t="s">
         <v>172</v>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K119" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L119" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 118
-  title: Surat Perintah Pemeriksaan (SP2) dan Surat Yang Berisi Perubahan Tim Pemeriksa Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J119" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="5" t="e">
+        <f>B119&amp;$C$1&amp;C119&amp;CHAR(10)&amp;$D$1&amp;D119&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E119&amp;CHAR(10)&amp;$F$1&amp;F119&amp;CHAR(10)&amp;$G$1&amp;G119&amp;IF(H119=0,"",CHAR(10)&amp;$H$1)&amp;H119&amp;CHAR(10)&amp;$I$1&amp;I119&amp;CHAR(10)&amp;$J$1&amp;TEXT(J119,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>108</v>
       </c>
@@ -20244,41 +19243,32 @@
       <c r="D120" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>191</v>
+      <c r="E120" t="s">
+        <v>146</v>
       </c>
       <c r="F120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G120" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H120" t="s">
-        <v>160</v>
-      </c>
-      <c r="I120" t="s">
         <v>172</v>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K120" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L120" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 119
-  title: Pemberitahuan dan Panggilan Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J120" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="5" t="e">
+        <f>B120&amp;$C$1&amp;C120&amp;CHAR(10)&amp;$D$1&amp;D120&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E120&amp;CHAR(10)&amp;$F$1&amp;F120&amp;CHAR(10)&amp;$G$1&amp;G120&amp;IF(H120=0,"",CHAR(10)&amp;$H$1)&amp;H120&amp;CHAR(10)&amp;$I$1&amp;I120&amp;CHAR(10)&amp;$J$1&amp;TEXT(J120,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -20291,41 +19281,32 @@
       <c r="D121" t="s">
         <v>97</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>191</v>
+      <c r="E121" t="s">
+        <v>146</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G121" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H121" t="s">
-        <v>160</v>
-      </c>
-      <c r="I121" t="s">
         <v>172</v>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K121" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L121" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 120
-  title: Peminjaman Dokumen
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I121" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J121" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="5" t="e">
+        <f>B121&amp;$C$1&amp;C121&amp;CHAR(10)&amp;$D$1&amp;D121&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E121&amp;CHAR(10)&amp;$F$1&amp;F121&amp;CHAR(10)&amp;$G$1&amp;G121&amp;IF(H121=0,"",CHAR(10)&amp;$H$1)&amp;H121&amp;CHAR(10)&amp;$I$1&amp;I121&amp;CHAR(10)&amp;$J$1&amp;TEXT(J121,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -20338,41 +19319,32 @@
       <c r="D122" t="s">
         <v>99</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>191</v>
+      <c r="E122" t="s">
+        <v>146</v>
       </c>
       <c r="F122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G122" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H122" t="s">
-        <v>160</v>
-      </c>
-      <c r="I122" t="s">
         <v>172</v>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K122" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L122" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 121
-  title: Penolakan Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J122" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="5" t="e">
+        <f>B122&amp;$C$1&amp;C122&amp;CHAR(10)&amp;$D$1&amp;D122&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E122&amp;CHAR(10)&amp;$F$1&amp;F122&amp;CHAR(10)&amp;$G$1&amp;G122&amp;IF(H122=0,"",CHAR(10)&amp;$H$1)&amp;H122&amp;CHAR(10)&amp;$I$1&amp;I122&amp;CHAR(10)&amp;$J$1&amp;TEXT(J122,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -20385,41 +19357,32 @@
       <c r="D123" t="s">
         <v>109</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>191</v>
+      <c r="E123" t="s">
+        <v>146</v>
       </c>
       <c r="F123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G123" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H123" t="s">
-        <v>160</v>
-      </c>
-      <c r="I123" t="s">
         <v>172</v>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K123" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L123" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 122
-  title: Penjelasan Wajib Pajak dan Pihak Ketiga
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Pemeriksaan Untuk Tujuan Lain (Sejak 1 Februari 2013)
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I123" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J123" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="5" t="e">
+        <f>B123&amp;$C$1&amp;C123&amp;CHAR(10)&amp;$D$1&amp;D123&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E123&amp;CHAR(10)&amp;$F$1&amp;F123&amp;CHAR(10)&amp;$G$1&amp;G123&amp;IF(H123=0,"",CHAR(10)&amp;$H$1)&amp;H123&amp;CHAR(10)&amp;$I$1&amp;I123&amp;CHAR(10)&amp;$J$1&amp;TEXT(J123,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -20432,41 +19395,32 @@
       <c r="D124" t="s">
         <v>110</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>191</v>
+      <c r="E124" t="s">
+        <v>146</v>
       </c>
       <c r="F124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G124" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H124" t="s">
-        <v>160</v>
-      </c>
-      <c r="I124" t="s">
         <v>173</v>
       </c>
-      <c r="J124" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K124" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L124" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 123
-  title: Pemeriksaan lapangan (Untuk Surat Perintah Pemeriksaan yang diterbitkan sebelum 3 Mei 2011)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I124" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J124" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="5" t="e">
+        <f>B124&amp;$C$1&amp;C124&amp;CHAR(10)&amp;$D$1&amp;D124&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E124&amp;CHAR(10)&amp;$F$1&amp;F124&amp;CHAR(10)&amp;$G$1&amp;G124&amp;IF(H124=0,"",CHAR(10)&amp;$H$1)&amp;H124&amp;CHAR(10)&amp;$I$1&amp;I124&amp;CHAR(10)&amp;$J$1&amp;TEXT(J124,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -20479,41 +19433,32 @@
       <c r="D125" t="s">
         <v>111</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>191</v>
+      <c r="E125" t="s">
+        <v>146</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G125" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H125" t="s">
-        <v>160</v>
-      </c>
-      <c r="I125" t="s">
         <v>173</v>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K125" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L125" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 124
-  title: Hak dan Kewajiban Wajib Pajak dan Pemeriksa Pajak dalam Pemeriksaan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I125" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J125" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="5" t="e">
+        <f>B125&amp;$C$1&amp;C125&amp;CHAR(10)&amp;$D$1&amp;D125&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E125&amp;CHAR(10)&amp;$F$1&amp;F125&amp;CHAR(10)&amp;$G$1&amp;G125&amp;IF(H125=0,"",CHAR(10)&amp;$H$1)&amp;H125&amp;CHAR(10)&amp;$I$1&amp;I125&amp;CHAR(10)&amp;$J$1&amp;TEXT(J125,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -20526,41 +19471,32 @@
       <c r="D126" t="s">
         <v>112</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>191</v>
+      <c r="E126" t="s">
+        <v>146</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G126" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H126" t="s">
-        <v>160</v>
-      </c>
-      <c r="I126" t="s">
         <v>173</v>
       </c>
-      <c r="J126" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K126" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L126" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 125
-  title: Pemerikasaan kantor
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J126" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="5" t="e">
+        <f>B126&amp;$C$1&amp;C126&amp;CHAR(10)&amp;$D$1&amp;D126&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E126&amp;CHAR(10)&amp;$F$1&amp;F126&amp;CHAR(10)&amp;$G$1&amp;G126&amp;IF(H126=0,"",CHAR(10)&amp;$H$1)&amp;H126&amp;CHAR(10)&amp;$I$1&amp;I126&amp;CHAR(10)&amp;$J$1&amp;TEXT(J126,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -20573,41 +19509,32 @@
       <c r="D127" t="s">
         <v>113</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>191</v>
+      <c r="E127" t="s">
+        <v>146</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G127" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H127" t="s">
-        <v>160</v>
-      </c>
-      <c r="I127" t="s">
         <v>173</v>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K127" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L127" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 126
-  title: Pemeriksaan Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J127" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="5" t="e">
+        <f>B127&amp;$C$1&amp;C127&amp;CHAR(10)&amp;$D$1&amp;D127&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E127&amp;CHAR(10)&amp;$F$1&amp;F127&amp;CHAR(10)&amp;$G$1&amp;G127&amp;IF(H127=0,"",CHAR(10)&amp;$H$1)&amp;H127&amp;CHAR(10)&amp;$I$1&amp;I127&amp;CHAR(10)&amp;$J$1&amp;TEXT(J127,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -20620,41 +19547,32 @@
       <c r="D128" t="s">
         <v>114</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>191</v>
+      <c r="E128" t="s">
+        <v>146</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G128" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H128" t="s">
-        <v>160</v>
-      </c>
-      <c r="I128" t="s">
         <v>173</v>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K128" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L128" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 127
-  title: Tata Cara Pemeriksaan Pajak
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J128" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="5" t="e">
+        <f>B128&amp;$C$1&amp;C128&amp;CHAR(10)&amp;$D$1&amp;D128&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E128&amp;CHAR(10)&amp;$F$1&amp;F128&amp;CHAR(10)&amp;$G$1&amp;G128&amp;IF(H128=0,"",CHAR(10)&amp;$H$1)&amp;H128&amp;CHAR(10)&amp;$I$1&amp;I128&amp;CHAR(10)&amp;$J$1&amp;TEXT(J128,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -20667,41 +19585,32 @@
       <c r="D129" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>191</v>
+      <c r="E129" t="s">
+        <v>146</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H129" t="s">
-        <v>160</v>
-      </c>
-      <c r="I129" t="s">
         <v>173</v>
       </c>
-      <c r="J129" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K129" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L129" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 128
-  title: Pemeriksaan Untuk Menguji Kepatuhan Pemenuhan Kewajiban Perpajakan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J129" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="5" t="e">
+        <f>B129&amp;$C$1&amp;C129&amp;CHAR(10)&amp;$D$1&amp;D129&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E129&amp;CHAR(10)&amp;$F$1&amp;F129&amp;CHAR(10)&amp;$G$1&amp;G129&amp;IF(H129=0,"",CHAR(10)&amp;$H$1)&amp;H129&amp;CHAR(10)&amp;$I$1&amp;I129&amp;CHAR(10)&amp;$J$1&amp;TEXT(J129,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>116</v>
       </c>
@@ -20714,41 +19623,32 @@
       <c r="D130" t="s">
         <v>116</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>191</v>
+      <c r="E130" t="s">
+        <v>146</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G130" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H130" t="s">
-        <v>160</v>
-      </c>
-      <c r="I130" t="s">
         <v>173</v>
       </c>
-      <c r="J130" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K130" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L130" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>- id: 129
-  title: Pemeriksaan Untuk Tujuan Lain Dalam rangka Melaksanakan Ketentuan Peraturan Per-UU-an Perpajakan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Pemeriksaan
-  subtopik: Ketentuan sebelum 1 Februari 2013
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J130" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="5" t="e">
+        <f>B130&amp;$C$1&amp;C130&amp;CHAR(10)&amp;$D$1&amp;D130&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E130&amp;CHAR(10)&amp;$F$1&amp;F130&amp;CHAR(10)&amp;$G$1&amp;G130&amp;IF(H130=0,"",CHAR(10)&amp;$H$1)&amp;H130&amp;CHAR(10)&amp;$I$1&amp;I130&amp;CHAR(10)&amp;$J$1&amp;TEXT(J130,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -20761,37 +19661,29 @@
       <c r="D131" t="s">
         <v>117</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>191</v>
+      <c r="E131" t="s">
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>145</v>
-      </c>
-      <c r="H131" t="s">
         <v>161</v>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K131" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L131" s="5" t="str">
-        <f t="shared" ref="L131:L151" si="2">B131&amp;$C$1&amp;C131&amp;CHAR(10)&amp;$D$1&amp;D131&amp;CHAR(10)&amp;$E$1&amp;E131&amp;CHAR(10)&amp;$F$1&amp;F131&amp;CHAR(10)&amp;$G$1&amp;G131&amp;CHAR(10)&amp;$H$1&amp;H131&amp;IF(I131=0,"",CHAR(10)&amp;$I$1)&amp;I131&amp;CHAR(10)&amp;$J$1&amp;J131&amp;CHAR(10)&amp;$K$1&amp;TEXT(K131,"dd mmmm yyyy")</f>
-        <v>- id: 130
-  title: Surat Ketetapan Pajak (SKP)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Sanksi, Penetapan dan Ketetapan Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I131" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J131" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="5" t="e">
+        <f>B131&amp;$C$1&amp;C131&amp;CHAR(10)&amp;$D$1&amp;D131&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E131&amp;CHAR(10)&amp;$F$1&amp;F131&amp;CHAR(10)&amp;$G$1&amp;G131&amp;IF(H131=0,"",CHAR(10)&amp;$H$1)&amp;H131&amp;CHAR(10)&amp;$I$1&amp;I131&amp;CHAR(10)&amp;$J$1&amp;TEXT(J131,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -20804,37 +19696,29 @@
       <c r="D132" t="s">
         <v>118</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>191</v>
+      <c r="E132" t="s">
+        <v>146</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G132" t="s">
-        <v>145</v>
-      </c>
-      <c r="H132" t="s">
         <v>161</v>
       </c>
-      <c r="J132" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K132" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L132" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 131
-  title: SKPKB
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Sanksi, Penetapan dan Ketetapan Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I132" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J132" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="5" t="e">
+        <f>B132&amp;$C$1&amp;C132&amp;CHAR(10)&amp;$D$1&amp;D132&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E132&amp;CHAR(10)&amp;$F$1&amp;F132&amp;CHAR(10)&amp;$G$1&amp;G132&amp;IF(H132=0,"",CHAR(10)&amp;$H$1)&amp;H132&amp;CHAR(10)&amp;$I$1&amp;I132&amp;CHAR(10)&amp;$J$1&amp;TEXT(J132,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>119</v>
       </c>
@@ -20847,37 +19731,29 @@
       <c r="D133" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>191</v>
+      <c r="E133" t="s">
+        <v>146</v>
       </c>
       <c r="F133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G133" t="s">
-        <v>145</v>
-      </c>
-      <c r="H133" t="s">
         <v>161</v>
       </c>
-      <c r="J133" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K133" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L133" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 132
-  title: Surat Tagihan Pajak (STP)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Sanksi, Penetapan dan Ketetapan Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I133" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J133" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="5" t="e">
+        <f>B133&amp;$C$1&amp;C133&amp;CHAR(10)&amp;$D$1&amp;D133&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E133&amp;CHAR(10)&amp;$F$1&amp;F133&amp;CHAR(10)&amp;$G$1&amp;G133&amp;IF(H133=0,"",CHAR(10)&amp;$H$1)&amp;H133&amp;CHAR(10)&amp;$I$1&amp;I133&amp;CHAR(10)&amp;$J$1&amp;TEXT(J133,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>120</v>
       </c>
@@ -20890,37 +19766,29 @@
       <c r="D134" t="s">
         <v>120</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>191</v>
+      <c r="E134" t="s">
+        <v>146</v>
       </c>
       <c r="F134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G134" t="s">
-        <v>145</v>
-      </c>
-      <c r="H134" t="s">
         <v>161</v>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K134" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L134" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 133
-  title: SKPKBT
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Sanksi, Penetapan dan Ketetapan Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J134" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="5" t="e">
+        <f>B134&amp;$C$1&amp;C134&amp;CHAR(10)&amp;$D$1&amp;D134&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E134&amp;CHAR(10)&amp;$F$1&amp;F134&amp;CHAR(10)&amp;$G$1&amp;G134&amp;IF(H134=0,"",CHAR(10)&amp;$H$1)&amp;H134&amp;CHAR(10)&amp;$I$1&amp;I134&amp;CHAR(10)&amp;$J$1&amp;TEXT(J134,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -20933,41 +19801,32 @@
       <c r="D135" t="s">
         <v>121</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>191</v>
+      <c r="E135" t="s">
+        <v>146</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G135" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H135" t="s">
-        <v>162</v>
-      </c>
-      <c r="I135" t="s">
         <v>174</v>
       </c>
-      <c r="J135" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K135" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L135" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 134
-  title: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang (ketentuan lama)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J135" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="5" t="e">
+        <f>B135&amp;$C$1&amp;C135&amp;CHAR(10)&amp;$D$1&amp;D135&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E135&amp;CHAR(10)&amp;$F$1&amp;F135&amp;CHAR(10)&amp;$G$1&amp;G135&amp;IF(H135=0,"",CHAR(10)&amp;$H$1)&amp;H135&amp;CHAR(10)&amp;$I$1&amp;I135&amp;CHAR(10)&amp;$J$1&amp;TEXT(J135,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -20980,41 +19839,32 @@
       <c r="D136" t="s">
         <v>122</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>191</v>
+      <c r="E136" t="s">
+        <v>146</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G136" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H136" t="s">
-        <v>162</v>
-      </c>
-      <c r="I136" t="s">
         <v>174</v>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K136" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L136" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 135
-  title: Untuk PPh yang Dibayar Sendiri oleh WP (Ketentuan sebelum 1 Februari 2013)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J136" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="5" t="e">
+        <f>B136&amp;$C$1&amp;C136&amp;CHAR(10)&amp;$D$1&amp;D136&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E136&amp;CHAR(10)&amp;$F$1&amp;F136&amp;CHAR(10)&amp;$G$1&amp;G136&amp;IF(H136=0,"",CHAR(10)&amp;$H$1)&amp;H136&amp;CHAR(10)&amp;$I$1&amp;I136&amp;CHAR(10)&amp;$J$1&amp;TEXT(J136,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -21027,41 +19877,32 @@
       <c r="D137" t="s">
         <v>123</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>191</v>
+      <c r="E137" t="s">
+        <v>146</v>
       </c>
       <c r="F137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G137" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H137" t="s">
-        <v>162</v>
-      </c>
-      <c r="I137" t="s">
         <v>174</v>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K137" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L137" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 136
-  title: Untuk PPh yang Dipotong/Dipungut oleh Pihak Lain (Ketentuan sebelum 1 Februari 2013)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J137" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="5" t="e">
+        <f>B137&amp;$C$1&amp;C137&amp;CHAR(10)&amp;$D$1&amp;D137&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E137&amp;CHAR(10)&amp;$F$1&amp;F137&amp;CHAR(10)&amp;$G$1&amp;G137&amp;IF(H137=0,"",CHAR(10)&amp;$H$1)&amp;H137&amp;CHAR(10)&amp;$I$1&amp;I137&amp;CHAR(10)&amp;$J$1&amp;TEXT(J137,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -21074,41 +19915,32 @@
       <c r="D138" t="s">
         <v>124</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>191</v>
+      <c r="E138" t="s">
+        <v>146</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G138" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H138" t="s">
-        <v>162</v>
-      </c>
-      <c r="I138" t="s">
         <v>174</v>
       </c>
-      <c r="J138" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K138" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L138" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 137
-  title: Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang bagi WPLN (Ketentuan sebelum 1 Februari 2013)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J138" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="5" t="e">
+        <f>B138&amp;$C$1&amp;C138&amp;CHAR(10)&amp;$D$1&amp;D138&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E138&amp;CHAR(10)&amp;$F$1&amp;F138&amp;CHAR(10)&amp;$G$1&amp;G138&amp;IF(H138=0,"",CHAR(10)&amp;$H$1)&amp;H138&amp;CHAR(10)&amp;$I$1&amp;I138&amp;CHAR(10)&amp;$J$1&amp;TEXT(J138,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>125</v>
       </c>
@@ -21121,41 +19953,32 @@
       <c r="D139" t="s">
         <v>125</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>191</v>
+      <c r="E139" t="s">
+        <v>146</v>
       </c>
       <c r="F139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G139" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H139" t="s">
-        <v>162</v>
-      </c>
-      <c r="I139" t="s">
         <v>174</v>
       </c>
-      <c r="J139" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K139" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L139" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 138
-  title: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang sejak 30 September 2015
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Tata Cara Pengembalian Kelebihan Pembayaran Pajak yang Seharusnya Tidak Terutang
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I139" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J139" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="5" t="e">
+        <f>B139&amp;$C$1&amp;C139&amp;CHAR(10)&amp;$D$1&amp;D139&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E139&amp;CHAR(10)&amp;$F$1&amp;F139&amp;CHAR(10)&amp;$G$1&amp;G139&amp;IF(H139=0,"",CHAR(10)&amp;$H$1)&amp;H139&amp;CHAR(10)&amp;$I$1&amp;I139&amp;CHAR(10)&amp;$J$1&amp;TEXT(J139,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -21168,41 +19991,32 @@
       <c r="D140" t="s">
         <v>126</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>191</v>
+      <c r="E140" t="s">
+        <v>146</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G140" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H140" t="s">
-        <v>162</v>
-      </c>
-      <c r="I140" t="s">
         <v>175</v>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K140" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L140" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 139
-  title: Tata Cara Penghitungan Kelebihan Pembayaran PPh,PPN,dan/atau PPnBM
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Pengembalian Kelebihan Pembayaran PPh,PPN,dan/atau PPnBM
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I140" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J140" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="5" t="e">
+        <f>B140&amp;$C$1&amp;C140&amp;CHAR(10)&amp;$D$1&amp;D140&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E140&amp;CHAR(10)&amp;$F$1&amp;F140&amp;CHAR(10)&amp;$G$1&amp;G140&amp;IF(H140=0,"",CHAR(10)&amp;$H$1)&amp;H140&amp;CHAR(10)&amp;$I$1&amp;I140&amp;CHAR(10)&amp;$J$1&amp;TEXT(J140,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -21215,41 +20029,32 @@
       <c r="D141" t="s">
         <v>127</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>191</v>
+      <c r="E141" t="s">
+        <v>146</v>
       </c>
       <c r="F141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G141" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-      <c r="I141" t="s">
         <v>176</v>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K141" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L141" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 140
-  title: Pengembalian Pendahuluan Kelebihan Pajak untuk WP Dengan Kriteria Tertentu (tidak berlaku)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Ketentuan Lama
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I141" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J141" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="5" t="e">
+        <f>B141&amp;$C$1&amp;C141&amp;CHAR(10)&amp;$D$1&amp;D141&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E141&amp;CHAR(10)&amp;$F$1&amp;F141&amp;CHAR(10)&amp;$G$1&amp;G141&amp;IF(H141=0,"",CHAR(10)&amp;$H$1)&amp;H141&amp;CHAR(10)&amp;$I$1&amp;I141&amp;CHAR(10)&amp;$J$1&amp;TEXT(J141,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>128</v>
       </c>
@@ -21262,41 +20067,32 @@
       <c r="D142" t="s">
         <v>128</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>191</v>
+      <c r="E142" t="s">
+        <v>146</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G142" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H142" t="s">
-        <v>162</v>
-      </c>
-      <c r="I142" t="s">
         <v>176</v>
       </c>
-      <c r="J142" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K142" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L142" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 141
-  title: Pengembalian Pendahuluan Kelebihan Pajak untuk WP dengan Persyaratan Tertentu (tidak berlaku)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Ketentuan Lama
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J142" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="5" t="e">
+        <f>B142&amp;$C$1&amp;C142&amp;CHAR(10)&amp;$D$1&amp;D142&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E142&amp;CHAR(10)&amp;$F$1&amp;F142&amp;CHAR(10)&amp;$G$1&amp;G142&amp;IF(H142=0,"",CHAR(10)&amp;$H$1)&amp;H142&amp;CHAR(10)&amp;$I$1&amp;I142&amp;CHAR(10)&amp;$J$1&amp;TEXT(J142,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>129</v>
       </c>
@@ -21309,41 +20105,32 @@
       <c r="D143" t="s">
         <v>129</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>191</v>
+      <c r="E143" t="s">
+        <v>146</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G143" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H143" t="s">
-        <v>162</v>
-      </c>
-      <c r="I143" t="s">
         <v>176</v>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K143" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L143" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 142
-  title: Pengembalian Pendahuluan Kelebihan Pajak untuk WP dengan Persyaratan Tertentu (Ketentuan sejak 1 Januari 2014)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Ketentuan Lama
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J143" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="5" t="e">
+        <f>B143&amp;$C$1&amp;C143&amp;CHAR(10)&amp;$D$1&amp;D143&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E143&amp;CHAR(10)&amp;$F$1&amp;F143&amp;CHAR(10)&amp;$G$1&amp;G143&amp;IF(H143=0,"",CHAR(10)&amp;$H$1)&amp;H143&amp;CHAR(10)&amp;$I$1&amp;I143&amp;CHAR(10)&amp;$J$1&amp;TEXT(J143,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>130</v>
       </c>
@@ -21356,41 +20143,32 @@
       <c r="D144" t="s">
         <v>130</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>191</v>
+      <c r="E144" t="s">
+        <v>146</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G144" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H144" t="s">
-        <v>162</v>
-      </c>
-      <c r="I144" t="s">
         <v>177</v>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K144" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L144" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 143
-  title: PPKP Wajib Pajak Kriteria Tertentu
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Pengembalian Pendahuluan Kelebihan Pembayaran Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I144" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J144" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="5" t="e">
+        <f>B144&amp;$C$1&amp;C144&amp;CHAR(10)&amp;$D$1&amp;D144&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E144&amp;CHAR(10)&amp;$F$1&amp;F144&amp;CHAR(10)&amp;$G$1&amp;G144&amp;IF(H144=0,"",CHAR(10)&amp;$H$1)&amp;H144&amp;CHAR(10)&amp;$I$1&amp;I144&amp;CHAR(10)&amp;$J$1&amp;TEXT(J144,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -21403,41 +20181,32 @@
       <c r="D145" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>191</v>
+      <c r="E145" t="s">
+        <v>146</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G145" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-      <c r="I145" t="s">
         <v>177</v>
       </c>
-      <c r="J145" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K145" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L145" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 144
-  title: PPKP Wajib Pajak Persyaratan Tertentu
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Restitusi
-  subtopik: Pengembalian Pendahuluan Kelebihan Pembayaran Pajak
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I145" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J145" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="5" t="e">
+        <f>B145&amp;$C$1&amp;C145&amp;CHAR(10)&amp;$D$1&amp;D145&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E145&amp;CHAR(10)&amp;$F$1&amp;F145&amp;CHAR(10)&amp;$G$1&amp;G145&amp;IF(H145=0,"",CHAR(10)&amp;$H$1)&amp;H145&amp;CHAR(10)&amp;$I$1&amp;I145&amp;CHAR(10)&amp;$J$1&amp;TEXT(J145,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>132</v>
       </c>
@@ -21450,37 +20219,29 @@
       <c r="D146" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>191</v>
+      <c r="E146" t="s">
+        <v>146</v>
       </c>
       <c r="F146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G146" t="s">
-        <v>145</v>
-      </c>
-      <c r="H146" t="s">
         <v>163</v>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K146" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L146" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 145
-  title: Imbalan Bunga (Sebelum 1 Januari 2014)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Imbalan Bunga
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I146" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J146" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="5" t="e">
+        <f>B146&amp;$C$1&amp;C146&amp;CHAR(10)&amp;$D$1&amp;D146&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E146&amp;CHAR(10)&amp;$F$1&amp;F146&amp;CHAR(10)&amp;$G$1&amp;G146&amp;IF(H146=0,"",CHAR(10)&amp;$H$1)&amp;H146&amp;CHAR(10)&amp;$I$1&amp;I146&amp;CHAR(10)&amp;$J$1&amp;TEXT(J146,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>133</v>
       </c>
@@ -21493,41 +20254,32 @@
       <c r="D147" t="s">
         <v>133</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>191</v>
+      <c r="E147" t="s">
+        <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G147" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-      <c r="I147" t="s">
         <v>178</v>
       </c>
-      <c r="J147" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K147" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L147" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 146
-  title: Imbalan Bunga (Ketentuan Sejak 1 Januari 2014)
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Imbalan Bunga
-  subtopik: Imbalan bunga sejak 1 Januari 2014
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I147" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J147" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="5" t="e">
+        <f>B147&amp;$C$1&amp;C147&amp;CHAR(10)&amp;$D$1&amp;D147&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E147&amp;CHAR(10)&amp;$F$1&amp;F147&amp;CHAR(10)&amp;$G$1&amp;G147&amp;IF(H147=0,"",CHAR(10)&amp;$H$1)&amp;H147&amp;CHAR(10)&amp;$I$1&amp;I147&amp;CHAR(10)&amp;$J$1&amp;TEXT(J147,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>134</v>
       </c>
@@ -21540,41 +20292,32 @@
       <c r="D148" t="s">
         <v>134</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>191</v>
+      <c r="E148" t="s">
+        <v>146</v>
       </c>
       <c r="F148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G148" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H148" t="s">
-        <v>163</v>
-      </c>
-      <c r="I148" t="s">
         <v>178</v>
       </c>
-      <c r="J148" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K148" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L148" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 147
-  title: Tata Cara Pemberian Imbalan Bunga
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Imbalan Bunga
-  subtopik: Imbalan bunga sejak 1 Januari 2014
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J148" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="5" t="e">
+        <f>B148&amp;$C$1&amp;C148&amp;CHAR(10)&amp;$D$1&amp;D148&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E148&amp;CHAR(10)&amp;$F$1&amp;F148&amp;CHAR(10)&amp;$G$1&amp;G148&amp;IF(H148=0,"",CHAR(10)&amp;$H$1)&amp;H148&amp;CHAR(10)&amp;$I$1&amp;I148&amp;CHAR(10)&amp;$J$1&amp;TEXT(J148,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -21587,41 +20330,32 @@
       <c r="D149" t="s">
         <v>135</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>191</v>
+      <c r="E149" t="s">
+        <v>146</v>
       </c>
       <c r="F149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G149" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-      <c r="I149" t="s">
         <v>178</v>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K149" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L149" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 148
-  title: Penyebab Diberikan Imbalan Bunga Dan Penghitungan Imbalan Bunganya
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Imbalan Bunga
-  subtopik: Imbalan bunga sejak 1 Januari 2014
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J149" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="5" t="e">
+        <f>B149&amp;$C$1&amp;C149&amp;CHAR(10)&amp;$D$1&amp;D149&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E149&amp;CHAR(10)&amp;$F$1&amp;F149&amp;CHAR(10)&amp;$G$1&amp;G149&amp;IF(H149=0,"",CHAR(10)&amp;$H$1)&amp;H149&amp;CHAR(10)&amp;$I$1&amp;I149&amp;CHAR(10)&amp;$J$1&amp;TEXT(J149,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>136</v>
       </c>
@@ -21634,37 +20368,29 @@
       <c r="D150" t="s">
         <v>136</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>191</v>
+      <c r="E150" t="s">
+        <v>146</v>
       </c>
       <c r="F150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G150" t="s">
-        <v>145</v>
-      </c>
-      <c r="H150" t="s">
         <v>164</v>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K150" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L150" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 149
-  title: Sunset Policy
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Sunset policy
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J150" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="5" t="e">
+        <f>B150&amp;$C$1&amp;C150&amp;CHAR(10)&amp;$D$1&amp;D150&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E150&amp;CHAR(10)&amp;$F$1&amp;F150&amp;CHAR(10)&amp;$G$1&amp;G150&amp;IF(H150=0,"",CHAR(10)&amp;$H$1)&amp;H150&amp;CHAR(10)&amp;$I$1&amp;I150&amp;CHAR(10)&amp;$J$1&amp;TEXT(J150,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>137</v>
       </c>
@@ -21677,43 +20403,31 @@
       <c r="D151" t="s">
         <v>137</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>191</v>
+      <c r="E151" t="s">
+        <v>146</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G151" t="s">
-        <v>145</v>
-      </c>
-      <c r="H151" t="s">
         <v>165</v>
       </c>
-      <c r="J151" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K151" s="4">
-        <v>43810</v>
-      </c>
-      <c r="L151" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>- id: 150
-  title: Pendaftaran Lembaga Keuangan
-  url: https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w
-  fitur: resume
-  category: kup
-  topik: Akses Informasi Keuangan
-  icon: far fa-file-word
-  tgl: 11 Desember 2019</v>
+      <c r="I151" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J151" s="4">
+        <v>43810</v>
+      </c>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="5" t="e">
+        <f>B151&amp;$C$1&amp;C151&amp;CHAR(10)&amp;$D$1&amp;D151&amp;CHAR(10)&amp;#REF!&amp;#REF!&amp;CHAR(10)&amp;$E$1&amp;E151&amp;CHAR(10)&amp;$F$1&amp;F151&amp;CHAR(10)&amp;$G$1&amp;G151&amp;IF(H151=0,"",CHAR(10)&amp;$H$1)&amp;H151&amp;CHAR(10)&amp;$I$1&amp;I151&amp;CHAR(10)&amp;$J$1&amp;TEXT(J151,"dd mmmm yyyy")</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S151"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E151" r:id="rId2" display="https://drive.google.com/open?id=1pxSdzbMHea2r8gSET1MzfF9NjYq5R-qqMtHUPXcH64w"/>
-  </hyperlinks>
+  <autoFilter ref="A1:T151"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>